--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -10293,7 +10293,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10305,76 +10305,76 @@
         <v>45206.75</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
+        <v>1.975</v>
+      </c>
+      <c r="S111">
         <v>1.825</v>
-      </c>
-      <c r="S111">
-        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.825</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10382,7 +10382,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10394,76 +10394,76 @@
         <v>45206.75</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.825</v>
+      </c>
+      <c r="S112">
         <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
         <v>0.825</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -3885,7 +3885,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3897,58 +3897,58 @@
         <v>45094.625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>39</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3957,16 +3957,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3986,58 +3986,58 @@
         <v>45094.625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>39</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4046,16 +4046,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -10293,7 +10293,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10305,76 +10305,76 @@
         <v>45206.75</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N111">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
         <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.825</v>
       </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
       <c r="AC111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10382,7 +10382,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10394,76 +10394,76 @@
         <v>45206.75</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
         <v>1.825</v>
-      </c>
-      <c r="S112">
-        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.825</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -3885,7 +3885,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3897,58 +3897,58 @@
         <v>45094.625</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>39</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3957,16 +3957,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3986,58 +3986,58 @@
         <v>45094.625</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>39</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4046,16 +4046,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -10293,7 +10293,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10305,76 +10305,76 @@
         <v>45206.75</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
+        <v>1.975</v>
+      </c>
+      <c r="S111">
         <v>1.825</v>
-      </c>
-      <c r="S111">
-        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.825</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10382,7 +10382,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10394,76 +10394,76 @@
         <v>45206.75</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.825</v>
+      </c>
+      <c r="S112">
         <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
         <v>0.825</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -3885,7 +3885,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3897,58 +3897,58 @@
         <v>45094.625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>39</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3957,16 +3957,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3986,58 +3986,58 @@
         <v>45094.625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>39</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4046,16 +4046,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -3885,7 +3885,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3897,58 +3897,58 @@
         <v>45094.625</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>39</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3957,16 +3957,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3986,58 +3986,58 @@
         <v>45094.625</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>39</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4046,16 +4046,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -10293,7 +10293,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10305,76 +10305,76 @@
         <v>45206.75</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N111">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
         <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.825</v>
       </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
       <c r="AC111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10382,7 +10382,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10394,76 +10394,76 @@
         <v>45206.75</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
         <v>1.825</v>
-      </c>
-      <c r="S112">
-        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.825</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.825</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.825</v>
       </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.825</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.825</v>
       </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -8328,6 +8328,80 @@
       </c>
       <c r="AC88">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7802874</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45395.70833333334</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89">
+        <v>2.2</v>
+      </c>
+      <c r="L89">
+        <v>3.6</v>
+      </c>
+      <c r="M89">
+        <v>2.6</v>
+      </c>
+      <c r="N89">
+        <v>2.25</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.55</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1.775</v>
+      </c>
+      <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
+        <v>1.85</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1405,58 +1405,58 @@
         <v>45094.625</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1465,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1494,58 +1494,58 @@
         <v>45094.625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,16 +1554,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -8335,7 +8335,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7802874</v>
+        <v>7803362</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8344,49 +8344,49 @@
         <v>28</v>
       </c>
       <c r="E89" s="2">
-        <v>45395.70833333334</v>
+        <v>45396.83333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N89">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.825</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8335,7 +8335,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7803362</v>
+        <v>7802934</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8344,64 +8344,257 @@
         <v>28</v>
       </c>
       <c r="E89" s="2">
-        <v>45396.83333333334</v>
+        <v>45395.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>39</v>
       </c>
       <c r="K89">
+        <v>2.875</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>2.1</v>
+      </c>
+      <c r="N89">
         <v>2.4</v>
       </c>
-      <c r="L89">
-        <v>3.6</v>
-      </c>
-      <c r="M89">
-        <v>2.4</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7802874</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45395.70833333334</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90">
+        <v>2.2</v>
+      </c>
+      <c r="L90">
+        <v>3.6</v>
+      </c>
+      <c r="M90">
+        <v>2.6</v>
+      </c>
+      <c r="N90">
+        <v>2.25</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
+        <v>2.55</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1.775</v>
+      </c>
+      <c r="S90">
+        <v>2.025</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
+        <v>1.85</v>
+      </c>
+      <c r="W90">
+        <v>1.25</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.95</v>
+      </c>
+      <c r="AC90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7803361</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91">
+        <v>1.833</v>
+      </c>
+      <c r="L91">
+        <v>3.5</v>
+      </c>
+      <c r="M91">
+        <v>3.5</v>
+      </c>
+      <c r="N91">
+        <v>1.95</v>
+      </c>
+      <c r="O91">
+        <v>3.25</v>
+      </c>
+      <c r="P91">
+        <v>3.4</v>
+      </c>
+      <c r="Q91">
+        <v>-0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.775</v>
+      </c>
+      <c r="S91">
+        <v>2.025</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
         <v>1.875</v>
       </c>
-      <c r="V89">
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
+      <c r="W91">
+        <v>0.95</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8597,6 +8597,95 @@
         <v>0.925</v>
       </c>
     </row>
+    <row r="92" spans="1:29">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7803362</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45396.83333333334</v>
+      </c>
+      <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92">
+        <v>2.4</v>
+      </c>
+      <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>2.4</v>
+      </c>
+      <c r="N92">
+        <v>2.9</v>
+      </c>
+      <c r="O92">
+        <v>3.5</v>
+      </c>
+      <c r="P92">
+        <v>2.05</v>
+      </c>
+      <c r="Q92">
+        <v>0.5</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.5</v>
+      </c>
+      <c r="U92">
+        <v>1.95</v>
+      </c>
+      <c r="V92">
+        <v>1.85</v>
+      </c>
+      <c r="W92">
+        <v>1.9</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.8</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>0.95</v>
+      </c>
+      <c r="AC92">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.825</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8684,6 +8684,80 @@
       </c>
       <c r="AC92">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7802935</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45401.95833333334</v>
+      </c>
+      <c r="F93" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93">
+        <v>1.727</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>1.533</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
+        <v>4.5</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7801,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7813,76 +7813,76 @@
         <v>45206.75</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.825</v>
       </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7890,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7902,76 +7902,76 @@
         <v>45206.75</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8691,7 +8691,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7802935</v>
+        <v>7803363</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8700,34 +8700,43 @@
         <v>28</v>
       </c>
       <c r="E93" s="2">
-        <v>45401.95833333334</v>
+        <v>45400.95833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
         <v>1.95</v>
@@ -8736,27 +8745,107 @@
         <v>1.85</v>
       </c>
       <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
+        <v>2</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.95</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
+        <v>-0.5</v>
+      </c>
+      <c r="AC93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7802935</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45401.95833333334</v>
+      </c>
+      <c r="F94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94">
+        <v>1.727</v>
+      </c>
+      <c r="L94">
+        <v>3.5</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>3.8</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
         <v>2.5</v>
       </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
-      <c r="W93">
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
         <v>0</v>
       </c>
-      <c r="X93">
+      <c r="X94">
         <v>0</v>
       </c>
-      <c r="Y93">
+      <c r="Y94">
         <v>0</v>
       </c>
-      <c r="Z93">
+      <c r="Z94">
         <v>0</v>
       </c>
-      <c r="AA93">
+      <c r="AA94">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -8780,7 +8780,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7802935</v>
+        <v>7802875</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8789,40 +8789,40 @@
         <v>28</v>
       </c>
       <c r="E94" s="2">
-        <v>45401.95833333334</v>
+        <v>45403.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T94">
         <v>2.5</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8780,7 +8780,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7802875</v>
+        <v>7802935</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8789,40 +8789,49 @@
         <v>28</v>
       </c>
       <c r="E94" s="2">
-        <v>45403.70833333334</v>
+        <v>45401.95833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>39</v>
       </c>
       <c r="K94">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>2.5</v>
@@ -8831,21 +8840,190 @@
         <v>1.95</v>
       </c>
       <c r="V94">
+        <v>1.75</v>
+      </c>
+      <c r="W94">
+        <v>0.615</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7802936</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95">
+        <v>3.1</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2.875</v>
+      </c>
+      <c r="O95">
+        <v>3.1</v>
+      </c>
+      <c r="P95">
+        <v>2.25</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.775</v>
+      </c>
+      <c r="S95">
+        <v>2.025</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="W94">
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.3875</v>
+      </c>
+      <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-0.5</v>
+      </c>
+      <c r="AC95">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7802875</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45403.70833333334</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96">
+        <v>2.8</v>
+      </c>
+      <c r="L96">
+        <v>3.3</v>
+      </c>
+      <c r="M96">
+        <v>2.2</v>
+      </c>
+      <c r="N96">
+        <v>3.25</v>
+      </c>
+      <c r="O96">
+        <v>3.4</v>
+      </c>
+      <c r="P96">
+        <v>2</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.775</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
+        <v>1.85</v>
+      </c>
+      <c r="W96">
         <v>0</v>
       </c>
-      <c r="X94">
+      <c r="X96">
         <v>0</v>
       </c>
-      <c r="Y94">
+      <c r="Y96">
         <v>0</v>
       </c>
-      <c r="Z94">
+      <c r="Z96">
         <v>0</v>
       </c>
-      <c r="AA94">
+      <c r="AA96">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +655,10 @@
         <v>0.5</v>
       </c>
       <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>0.7250000000000001</v>
@@ -1085,10 +1085,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-0.5</v>
@@ -1171,10 +1171,10 @@
         <v>2.8</v>
       </c>
       <c r="Y8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1257,10 +1257,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.8999999999999999</v>
@@ -1343,10 +1343,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>-0.5</v>
@@ -1360,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1369,58 +1369,58 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1429,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1455,58 +1455,58 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1515,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1601,10 +1601,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1687,10 +1687,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1859,10 +1859,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -1945,10 +1945,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>0.95</v>
@@ -2031,10 +2031,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2117,10 +2117,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.95</v>
@@ -2203,10 +2203,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.8</v>
@@ -2375,10 +2375,10 @@
         <v>1.5</v>
       </c>
       <c r="Y22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
         <v>-0.5</v>
@@ -2461,10 +2461,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
         <v>0.875</v>
@@ -2547,10 +2547,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.4875</v>
@@ -2633,10 +2633,10 @@
         <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
         <v>0.9750000000000001</v>
@@ -2719,10 +2719,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>-0.5</v>
@@ -2805,10 +2805,10 @@
         <v>1.1</v>
       </c>
       <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.9750000000000001</v>
@@ -2891,10 +2891,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -2977,10 +2977,10 @@
         <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3149,10 +3149,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3321,10 +3321,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0.875</v>
@@ -3407,10 +3407,10 @@
         <v>1.6</v>
       </c>
       <c r="Y34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
         <v>-0.5</v>
@@ -3493,10 +3493,10 @@
         <v>0.7</v>
       </c>
       <c r="Y35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA35">
         <v>0.8999999999999999</v>
@@ -3579,10 +3579,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3665,10 +3665,10 @@
         <v>1.55</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3751,10 +3751,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3837,10 +3837,10 @@
         <v>1.1</v>
       </c>
       <c r="Y39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
         <v>0.7749999999999999</v>
@@ -3923,10 +3923,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z40">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4009,10 +4009,10 @@
         <v>1.6</v>
       </c>
       <c r="Y41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4095,10 +4095,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.75</v>
@@ -4353,10 +4353,10 @@
         <v>1.5</v>
       </c>
       <c r="Y45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
         <v>0.8500000000000001</v>
@@ -4439,10 +4439,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.8999999999999999</v>
@@ -4525,10 +4525,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.4875</v>
@@ -4697,10 +4697,10 @@
         <v>2.2</v>
       </c>
       <c r="Y49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4783,10 +4783,10 @@
         <v>1.55</v>
       </c>
       <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
       </c>
       <c r="AA50">
         <v>0.9750000000000001</v>
@@ -4869,10 +4869,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>0.925</v>
@@ -5041,10 +5041,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.475</v>
@@ -5127,10 +5127,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>0.825</v>
@@ -5385,10 +5385,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5471,10 +5471,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
         <v>0.925</v>
@@ -5557,10 +5557,10 @@
         <v>1.375</v>
       </c>
       <c r="Y59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
         <v>0.7749999999999999</v>
@@ -5643,10 +5643,10 @@
         <v>0.444</v>
       </c>
       <c r="Y60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>0.45</v>
@@ -5729,10 +5729,10 @@
         <v>1.75</v>
       </c>
       <c r="Y61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -5815,10 +5815,10 @@
         <v>2.6</v>
       </c>
       <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
       </c>
       <c r="AA62">
         <v>0.825</v>
@@ -6073,10 +6073,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>0.75</v>
@@ -6159,10 +6159,10 @@
         <v>1.45</v>
       </c>
       <c r="Y66">
+        <v>-1</v>
+      </c>
+      <c r="Z66">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
       </c>
       <c r="AA66">
         <v>0.8500000000000001</v>
@@ -6417,10 +6417,10 @@
         <v>0.95</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>0.95</v>
@@ -6503,10 +6503,10 @@
         <v>1.15</v>
       </c>
       <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0.925</v>
@@ -6589,10 +6589,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>0.8</v>
@@ -6675,10 +6675,10 @@
         <v>3.5</v>
       </c>
       <c r="Y72">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6761,10 +6761,10 @@
         <v>0.833</v>
       </c>
       <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6847,10 +6847,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.475</v>
@@ -6933,10 +6933,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>0.825</v>
@@ -7019,10 +7019,10 @@
         <v>3</v>
       </c>
       <c r="Y76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7105,10 +7105,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
         <v>0.4375</v>
@@ -7191,10 +7191,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
         <v>0.9750000000000001</v>
@@ -7363,10 +7363,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7449,10 +7449,10 @@
         <v>1.3</v>
       </c>
       <c r="Y81">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7535,10 +7535,10 @@
         <v>0.95</v>
       </c>
       <c r="Y82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
         <v>-0.5</v>
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -7879,10 +7879,10 @@
         <v>1.375</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7965,10 +7965,10 @@
         <v>2.1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
         <v>0.95</v>
@@ -8051,10 +8051,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>0.95</v>
@@ -8137,10 +8137,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>0.95</v>
@@ -8309,10 +8309,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8395,10 +8395,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>0.95</v>
@@ -8481,10 +8481,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-0.5</v>
@@ -8567,10 +8567,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8663,6 +8663,92 @@
       </c>
       <c r="AB95">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7802875</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45403.70833333334</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96">
+        <v>2.8</v>
+      </c>
+      <c r="K96">
+        <v>3.3</v>
+      </c>
+      <c r="L96">
+        <v>2.2</v>
+      </c>
+      <c r="M96">
+        <v>3.4</v>
+      </c>
+      <c r="N96">
+        <v>3.5</v>
+      </c>
+      <c r="O96">
+        <v>1.85</v>
+      </c>
+      <c r="P96">
+        <v>0.5</v>
+      </c>
+      <c r="Q96">
+        <v>1.85</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>2.75</v>
+      </c>
+      <c r="T96">
+        <v>1.975</v>
+      </c>
+      <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
+        <v>-1</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.95</v>
+      </c>
+      <c r="AA96">
+        <v>0.4875</v>
+      </c>
+      <c r="AB96">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802937</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +592,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -607,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -675,16 +678,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -761,16 +764,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -847,16 +850,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -933,16 +936,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1019,16 +1022,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1105,16 +1108,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1123,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1191,16 +1194,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1277,16 +1280,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,16 +1366,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1381,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.6</v>
@@ -1449,16 +1452,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1467,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>1.571</v>
@@ -1535,16 +1538,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1621,16 +1624,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,16 +1710,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1725,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1793,16 +1796,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1879,16 +1882,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1897,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1965,16 +1968,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2051,16 +2054,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2137,16 +2140,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2223,16 +2226,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2241,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2309,16 +2312,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2395,16 +2398,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2413,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2481,16 +2484,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2499,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2567,16 +2570,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2585,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2653,16 +2656,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2739,16 +2742,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2757,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2825,16 +2828,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2843,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2911,16 +2914,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -2997,16 +3000,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3015,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3083,16 +3086,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3169,16 +3172,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3187,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3255,16 +3258,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3273,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3341,16 +3344,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3359,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3427,16 +3430,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3445,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,16 +3516,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3599,16 +3602,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3685,16 +3688,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3771,16 +3774,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3857,16 +3860,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
         <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3943,16 +3946,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3961,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4029,16 +4032,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4047,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4115,16 +4118,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4133,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4201,16 +4204,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4219,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4287,16 +4290,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4305,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4373,16 +4376,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4459,16 +4462,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4477,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4545,16 +4548,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4563,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4631,16 +4634,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4649,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4717,16 +4720,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
         <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4735,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4803,16 +4806,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4821,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4889,16 +4892,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4907,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4975,16 +4978,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4993,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5061,16 +5064,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5079,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5147,16 +5150,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5165,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5233,16 +5236,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5251,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5319,16 +5322,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5337,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,16 +5408,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5423,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5491,16 +5494,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
         <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5509,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5577,16 +5580,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5595,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5663,16 +5666,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
         <v>33</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5681,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,16 +5752,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
         <v>32</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5767,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5835,16 +5838,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5853,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5921,16 +5924,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5939,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6007,16 +6010,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6025,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6093,16 +6096,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6111,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6179,16 +6182,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6197,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6265,16 +6268,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>29</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6351,16 +6354,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6369,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6437,16 +6440,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6455,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6523,16 +6526,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6609,16 +6612,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6627,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,16 +6698,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6781,16 +6784,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6867,16 +6870,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6953,16 +6956,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6971,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7039,16 +7042,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7057,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,16 +7128,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7143,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7211,16 +7214,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7229,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7297,16 +7300,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,16 +7386,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7469,16 +7472,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7487,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7555,16 +7558,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7573,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7641,16 +7644,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7659,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7727,16 +7730,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7745,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,16 +7816,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7831,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7899,16 +7902,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7917,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7985,16 +7988,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,16 +8074,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8089,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8157,16 +8160,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,16 +8246,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8261,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8329,16 +8332,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8347,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8415,16 +8418,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8433,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8501,16 +8504,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8519,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8587,16 +8590,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8673,16 +8676,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8691,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8749,6 +8752,71 @@
       </c>
       <c r="AB96">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45408.83333333334</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97">
+        <v>2.2</v>
+      </c>
+      <c r="K97">
+        <v>3.2</v>
+      </c>
+      <c r="L97">
+        <v>2.9</v>
+      </c>
+      <c r="M97">
+        <v>2.1</v>
+      </c>
+      <c r="N97">
+        <v>3.2</v>
+      </c>
+      <c r="O97">
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <v>-0.25</v>
+      </c>
+      <c r="Q97">
+        <v>1.9</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>2.5</v>
+      </c>
+      <c r="T97">
+        <v>1.975</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802937</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -495,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,16 +589,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -610,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -678,16 +675,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -696,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -764,16 +761,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -850,16 +847,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -936,16 +933,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -954,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1022,16 +1019,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1108,16 +1105,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1126,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1194,16 +1191,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1212,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1280,16 +1277,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1366,16 +1363,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1384,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>2.6</v>
@@ -1452,16 +1449,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1470,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>1.571</v>
@@ -1538,16 +1535,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1624,16 +1621,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1710,16 +1707,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1728,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1796,16 +1793,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1882,16 +1879,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1968,16 +1965,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2054,16 +2051,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2140,16 +2137,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2226,16 +2223,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2244,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2312,16 +2309,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2330,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2398,16 +2395,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2416,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2484,16 +2481,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2502,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2570,16 +2567,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2588,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2656,16 +2653,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2742,16 +2739,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2828,16 +2825,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2846,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2914,16 +2911,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2932,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3000,16 +2997,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3086,16 +3083,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3172,16 +3169,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3190,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3258,16 +3255,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3344,16 +3341,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3362,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3430,16 +3427,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
         <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3448,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3516,16 +3513,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3534,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3602,16 +3599,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3620,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3688,16 +3685,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3774,16 +3771,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3860,16 +3857,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3878,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3946,16 +3943,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3964,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4032,16 +4029,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4050,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4118,16 +4115,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4136,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4204,16 +4201,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4290,16 +4287,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4308,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4376,16 +4373,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4394,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4462,16 +4459,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4480,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4548,16 +4545,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4566,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4634,16 +4631,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4720,16 +4717,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4738,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4806,16 +4803,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4824,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4892,16 +4889,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4910,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4978,16 +4975,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4996,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5064,16 +5061,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5150,16 +5147,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5236,16 +5233,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5322,16 +5319,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5340,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5408,16 +5405,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5426,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5494,16 +5491,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5512,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5580,16 +5577,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5598,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5666,16 +5663,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5684,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5752,16 +5749,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5770,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5838,16 +5835,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5856,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5924,16 +5921,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6010,16 +6007,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6028,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6096,16 +6093,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6114,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6182,16 +6179,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6268,16 +6265,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6286,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6354,16 +6351,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6372,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6440,16 +6437,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6458,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6526,16 +6523,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6544,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6612,16 +6609,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6630,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6698,16 +6695,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6716,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6784,16 +6781,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6802,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6870,16 +6867,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6888,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6956,16 +6953,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7042,16 +7039,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7060,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7128,16 +7125,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7146,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7214,16 +7211,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7232,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7300,16 +7297,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7318,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7386,16 +7383,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7404,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7472,16 +7469,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7490,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7558,16 +7555,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7576,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7644,16 +7641,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7662,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7730,16 +7727,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7748,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7816,16 +7813,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7834,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7902,16 +7899,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7920,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7988,16 +7985,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8006,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8074,16 +8071,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8092,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8160,16 +8157,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8178,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8246,16 +8243,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8264,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8332,16 +8329,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8350,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8418,16 +8415,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8436,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8504,16 +8501,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8522,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8590,16 +8587,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8608,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8676,16 +8673,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8752,71 +8749,6 @@
       </c>
       <c r="AB96">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="2">
-        <v>45408.83333333334</v>
-      </c>
-      <c r="E97" t="s">
-        <v>33</v>
-      </c>
-      <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="J97">
-        <v>2.2</v>
-      </c>
-      <c r="K97">
-        <v>3.2</v>
-      </c>
-      <c r="L97">
-        <v>2.9</v>
-      </c>
-      <c r="M97">
-        <v>2.1</v>
-      </c>
-      <c r="N97">
-        <v>3.2</v>
-      </c>
-      <c r="O97">
-        <v>3</v>
-      </c>
-      <c r="P97">
-        <v>-0.25</v>
-      </c>
-      <c r="Q97">
-        <v>1.9</v>
-      </c>
-      <c r="R97">
-        <v>1.9</v>
-      </c>
-      <c r="S97">
-        <v>2.5</v>
-      </c>
-      <c r="T97">
-        <v>1.975</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.825</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.825</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802938</t>
+  </si>
+  <si>
+    <t>7802876</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -492,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +595,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -607,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -675,16 +681,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -761,16 +767,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -847,16 +853,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -933,16 +939,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1019,16 +1025,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1037,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1105,16 +1111,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1123,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1191,16 +1197,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1209,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1277,16 +1283,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,16 +1369,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1381,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>2.6</v>
@@ -1449,16 +1455,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.571</v>
@@ -1535,16 +1541,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1553,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1621,16 +1627,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,16 +1713,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1725,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1793,16 +1799,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1879,16 +1885,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1897,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1965,16 +1971,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1983,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2051,16 +2057,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2137,16 +2143,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2223,16 +2229,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2241,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2309,16 +2315,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
         <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2327,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2395,16 +2401,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2413,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2481,16 +2487,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2499,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2567,16 +2573,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2585,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2653,16 +2659,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2671,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2739,16 +2745,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2757,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2825,16 +2831,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2843,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2911,16 +2917,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2929,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -2997,16 +3003,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3083,16 +3089,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3101,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3169,16 +3175,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3187,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3255,16 +3261,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3273,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3341,16 +3347,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3359,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3427,16 +3433,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3445,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,16 +3519,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3531,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3599,16 +3605,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3685,16 +3691,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3771,16 +3777,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3789,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3857,16 +3863,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3943,16 +3949,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3961,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4029,16 +4035,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4115,16 +4121,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4133,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4201,16 +4207,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4219,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4287,16 +4293,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4305,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4373,16 +4379,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
         <v>31</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4459,16 +4465,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4477,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4545,16 +4551,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
         <v>34</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4563,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4631,16 +4637,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4649,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4717,16 +4723,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4735,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4803,16 +4809,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4821,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4889,16 +4895,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4907,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4975,16 +4981,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4993,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5061,16 +5067,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5079,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5147,16 +5153,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
         <v>33</v>
-      </c>
-      <c r="F55" t="s">
-        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5165,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5233,16 +5239,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5251,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5319,16 +5325,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5337,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,16 +5411,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5423,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5491,16 +5497,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5509,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5577,16 +5583,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5595,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5663,16 +5669,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5681,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,16 +5755,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5767,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5835,16 +5841,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
         <v>35</v>
-      </c>
-      <c r="F63" t="s">
-        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5853,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5921,16 +5927,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5939,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6007,16 +6013,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6025,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6093,16 +6099,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6111,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6179,16 +6185,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6197,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6265,16 +6271,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6283,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6351,16 +6357,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6369,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6437,16 +6443,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6455,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6523,16 +6529,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6609,16 +6615,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6627,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,16 +6701,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6713,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6781,16 +6787,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6799,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6867,16 +6873,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6885,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6953,16 +6959,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6971,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7039,16 +7045,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7057,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,16 +7131,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7143,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7211,16 +7217,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7229,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7297,16 +7303,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
         <v>32</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,16 +7389,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7401,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7469,16 +7475,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7487,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7552,85 +7558,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,85 +7644,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
         <v>38</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7727,16 +7733,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7745,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,16 +7819,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7831,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7899,16 +7905,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7917,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7985,16 +7991,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,16 +8077,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8089,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8157,16 +8163,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,16 +8249,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8261,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8329,16 +8335,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8347,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8415,16 +8421,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8433,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8501,16 +8507,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8519,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8587,16 +8593,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8673,16 +8679,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8691,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8749,6 +8755,222 @@
       </c>
       <c r="AB96">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7802937</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45408.83333333334</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97">
+        <v>2.2</v>
+      </c>
+      <c r="K97">
+        <v>3.2</v>
+      </c>
+      <c r="L97">
+        <v>2.9</v>
+      </c>
+      <c r="M97">
+        <v>2.4</v>
+      </c>
+      <c r="N97">
+        <v>3.3</v>
+      </c>
+      <c r="O97">
+        <v>2.5</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1.85</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>2.75</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
+        <v>1.4</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.5</v>
+      </c>
+      <c r="AB97">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>3.3</v>
+      </c>
+      <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
+        <v>3.25</v>
+      </c>
+      <c r="O98">
+        <v>2.75</v>
+      </c>
+      <c r="P98">
+        <v>-0.25</v>
+      </c>
+      <c r="Q98">
+        <v>2.025</v>
+      </c>
+      <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
+        <v>2.5</v>
+      </c>
+      <c r="T98">
+        <v>1.95</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45409.70833333334</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99">
+        <v>1.6</v>
+      </c>
+      <c r="K99">
+        <v>3.75</v>
+      </c>
+      <c r="L99">
+        <v>4.5</v>
+      </c>
+      <c r="M99">
+        <v>1.4</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>6.5</v>
+      </c>
+      <c r="P99">
+        <v>-1.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.9</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
+        <v>1.8</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7802938</t>
-  </si>
-  <si>
-    <t>7802876</t>
+    <t>7803364</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -498,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +592,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -613,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -681,16 +678,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -767,16 +764,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -853,16 +850,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -871,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -939,16 +936,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -957,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1025,16 +1022,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1043,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1111,16 +1108,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1129,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1197,16 +1194,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1215,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1283,16 +1280,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1301,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1369,16 +1366,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1387,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.6</v>
@@ -1455,16 +1452,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>1.571</v>
@@ -1541,16 +1538,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1627,16 +1624,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1713,16 +1710,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1731,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1799,16 +1796,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1885,16 +1882,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1903,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1971,16 +1968,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2057,16 +2054,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2075,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2143,16 +2140,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2161,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2229,16 +2226,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2247,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2315,16 +2312,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2333,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2401,16 +2398,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2419,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2487,16 +2484,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2505,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2573,16 +2570,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2591,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2659,16 +2656,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
         <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2677,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2745,16 +2742,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2763,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2831,16 +2828,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2849,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2917,16 +2914,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
         <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2935,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3003,16 +3000,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3021,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3089,16 +3086,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3107,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3175,16 +3172,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3193,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3261,16 +3258,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3279,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3347,16 +3344,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3365,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3433,16 +3430,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
         <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3451,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3519,16 +3516,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3537,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3605,16 +3602,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
         <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3623,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3691,16 +3688,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3709,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3777,16 +3774,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3795,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3863,16 +3860,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3881,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3949,16 +3946,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
-      </c>
-      <c r="F41" t="s">
-        <v>35</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3967,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4035,16 +4032,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4053,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4121,16 +4118,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4139,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4207,16 +4204,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4293,16 +4290,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4311,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4379,16 +4376,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4397,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4465,16 +4462,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4483,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4551,16 +4548,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4637,16 +4634,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4655,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4723,16 +4720,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4809,16 +4806,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4827,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4895,16 +4892,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4913,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4981,16 +4978,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4999,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5067,16 +5064,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5085,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5153,16 +5150,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5171,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5239,16 +5236,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5257,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5325,16 +5322,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5343,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5411,16 +5408,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5497,16 +5494,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5515,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5583,16 +5580,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5669,16 +5666,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5687,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5755,16 +5752,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5841,16 +5838,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5859,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5927,16 +5924,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5945,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6013,16 +6010,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6031,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6099,16 +6096,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6185,16 +6182,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6203,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6271,16 +6268,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6289,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6357,16 +6354,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6375,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6443,16 +6440,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6461,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6529,16 +6526,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6547,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6615,16 +6612,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6633,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6701,16 +6698,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6787,16 +6784,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6805,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6873,16 +6870,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s">
         <v>36</v>
-      </c>
-      <c r="F75" t="s">
-        <v>37</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6891,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6959,16 +6956,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" t="s">
         <v>32</v>
-      </c>
-      <c r="F76" t="s">
-        <v>33</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6977,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7045,16 +7042,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7063,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7131,16 +7128,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
         <v>35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7149,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7217,16 +7214,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7235,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7303,16 +7300,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7321,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7389,16 +7386,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7407,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7475,16 +7472,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7493,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7561,16 +7558,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7579,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7647,16 +7644,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7665,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7733,16 +7730,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7751,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7819,16 +7816,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7837,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7905,16 +7902,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7923,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7991,16 +7988,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8009,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,16 +8074,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8163,16 +8160,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8181,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8249,16 +8246,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8267,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8335,16 +8332,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8353,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8421,16 +8418,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8507,16 +8504,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8525,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8593,16 +8590,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8611,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8679,16 +8676,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8697,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8765,16 +8762,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8783,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8851,53 +8848,53 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
-        <v>45409.58333333334</v>
+        <v>45410.75</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J98">
         <v>2</v>
       </c>
       <c r="K98">
+        <v>3.2</v>
+      </c>
+      <c r="L98">
         <v>3.3</v>
       </c>
-      <c r="L98">
-        <v>3.2</v>
-      </c>
       <c r="M98">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N98">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O98">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q98">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
         <v>0</v>
       </c>
@@ -8905,71 +8902,6 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45409.70833333334</v>
-      </c>
-      <c r="E99" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J99">
-        <v>1.6</v>
-      </c>
-      <c r="K99">
-        <v>3.75</v>
-      </c>
-      <c r="L99">
-        <v>4.5</v>
-      </c>
-      <c r="M99">
-        <v>1.4</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>-1.25</v>
-      </c>
-      <c r="Q99">
-        <v>1.9</v>
-      </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>2.5</v>
-      </c>
-      <c r="T99">
-        <v>1.8</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7803364</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -495,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,16 +589,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -610,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -678,16 +675,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -696,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -764,16 +761,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -850,16 +847,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -936,16 +933,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -954,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1022,16 +1019,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1108,16 +1105,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1126,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1194,16 +1191,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1212,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1280,16 +1277,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,67 +1360,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1432,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1449,67 +1446,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1518,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1538,16 +1535,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1624,16 +1621,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,49 +1704,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6227817</v>
+        <v>6227818</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45098.83333333334</v>
+        <v>45098.95833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
       <c r="J15">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N15">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q15">
         <v>1.95</v>
@@ -1761,31 +1758,31 @@
         <v>2.25</v>
       </c>
       <c r="T15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W15">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1793,49 +1790,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6227818</v>
+        <v>6227817</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45098.95833333334</v>
+        <v>45098.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M16">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q16">
         <v>1.95</v>
@@ -1847,31 +1844,31 @@
         <v>2.25</v>
       </c>
       <c r="T16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1882,16 +1879,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1968,16 +1965,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2054,16 +2051,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2140,16 +2137,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2226,16 +2223,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2244,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2312,16 +2309,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2330,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2398,16 +2395,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2416,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2484,16 +2481,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2502,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2570,16 +2567,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2588,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2656,16 +2653,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2742,16 +2739,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2828,16 +2825,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2846,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2914,16 +2911,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2932,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3000,16 +2997,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3086,16 +3083,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3172,16 +3169,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3190,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3258,16 +3255,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3344,16 +3341,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3362,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3430,16 +3427,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
         <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3448,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,46 +3510,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6227833</v>
+        <v>6227834</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45130.70833333334</v>
+        <v>45130.83333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J36">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
         <v>2.625</v>
       </c>
       <c r="N36">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O36">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3567,31 +3564,31 @@
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.8</v>
+      </c>
+      <c r="AA36">
         <v>1</v>
       </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3599,46 +3596,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6227834</v>
+        <v>6227833</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45130.83333333334</v>
+        <v>45130.70833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J37">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M37">
         <v>2.625</v>
       </c>
       <c r="N37">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O37">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3653,31 +3650,31 @@
         <v>2.5</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3688,16 +3685,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3774,16 +3771,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3860,16 +3857,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3878,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3946,16 +3943,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3964,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4032,16 +4029,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4050,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4118,16 +4115,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4136,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4204,16 +4201,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4290,16 +4287,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4308,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4376,16 +4373,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4394,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4462,16 +4459,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4480,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4548,16 +4545,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4566,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4634,16 +4631,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4720,16 +4717,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4738,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4806,16 +4803,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4824,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4892,16 +4889,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4910,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4978,16 +4975,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4996,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5064,16 +5061,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5150,16 +5147,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5236,16 +5233,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5322,16 +5319,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5340,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,82 +5402,82 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6227865</v>
+        <v>6227866</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45171.70833333334</v>
+        <v>45171.83333333334</v>
       </c>
       <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
         <v>36</v>
       </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58">
+      <c r="J58">
+        <v>2.4</v>
+      </c>
+      <c r="K58">
+        <v>3.2</v>
+      </c>
+      <c r="L58">
+        <v>2.6</v>
+      </c>
+      <c r="M58">
+        <v>2.8</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>2.375</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2.05</v>
+      </c>
+      <c r="R58">
+        <v>1.75</v>
+      </c>
+      <c r="S58">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58">
-        <v>1.7</v>
-      </c>
-      <c r="K58">
-        <v>3.4</v>
-      </c>
-      <c r="L58">
-        <v>4.333</v>
-      </c>
-      <c r="M58">
-        <v>1.65</v>
-      </c>
-      <c r="N58">
-        <v>3.5</v>
-      </c>
-      <c r="O58">
-        <v>4.75</v>
-      </c>
-      <c r="P58">
-        <v>-0.75</v>
-      </c>
-      <c r="Q58">
-        <v>1.85</v>
-      </c>
-      <c r="R58">
-        <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>2.5</v>
-      </c>
       <c r="T58">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y58">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5491,82 +5488,82 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6227866</v>
+        <v>6227865</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45171.83333333334</v>
+        <v>45171.70833333334</v>
       </c>
       <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
         <v>31</v>
       </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
       <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J59">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L59">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O59">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z59">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
         <v>-1</v>
@@ -5580,16 +5577,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5598,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5666,16 +5663,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5684,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,85 +5746,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6227868</v>
+        <v>6227869</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>45177.83333333334</v>
+        <v>45177.95833333334</v>
       </c>
       <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
         <v>33</v>
-      </c>
-      <c r="F62" t="s">
-        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>37</v>
       </c>
       <c r="J62">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
+        <v>1.6</v>
+      </c>
+      <c r="N62">
+        <v>3.6</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>-0.75</v>
+      </c>
+      <c r="Q62">
+        <v>1.8</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>2.5</v>
+      </c>
+      <c r="T62">
         <v>1.85</v>
       </c>
-      <c r="N62">
-        <v>3.4</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
-      <c r="P62">
-        <v>-0.5</v>
-      </c>
-      <c r="Q62">
-        <v>1.9</v>
-      </c>
-      <c r="R62">
-        <v>1.9</v>
-      </c>
-      <c r="S62">
-        <v>2.75</v>
-      </c>
-      <c r="T62">
-        <v>1.825</v>
-      </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
         <v>-1</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5835,85 +5832,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6227869</v>
+        <v>6227868</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45177.95833333334</v>
+        <v>45177.83333333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J63">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
+        <v>3.4</v>
+      </c>
+      <c r="O63">
         <v>3.6</v>
       </c>
-      <c r="O63">
-        <v>5</v>
-      </c>
       <c r="P63">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>2.6</v>
       </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5924,16 +5921,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6010,16 +6007,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6028,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6096,16 +6093,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6114,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6182,16 +6179,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6268,16 +6265,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6286,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6354,16 +6351,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6372,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6440,16 +6437,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6458,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6526,16 +6523,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6544,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6612,16 +6609,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6630,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,85 +6692,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6227876</v>
+        <v>6227877</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45192.58333333334</v>
+        <v>45192.83333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J73">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L73">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="P73">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6781,43 +6778,43 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6240264</v>
+        <v>6227876</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45192.70833333334</v>
+        <v>45192.58333333334</v>
       </c>
       <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" t="s">
         <v>29</v>
       </c>
-      <c r="F74" t="s">
-        <v>34</v>
-      </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K74">
         <v>3.4</v>
       </c>
       <c r="L74">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O74">
         <v>1.833</v>
@@ -6826,40 +6823,40 @@
         <v>0.5</v>
       </c>
       <c r="Q74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
         <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6867,67 +6864,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6227877</v>
+        <v>6240264</v>
       </c>
       <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="E75" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="2">
-        <v>45192.83333333334</v>
-      </c>
-      <c r="E75" t="s">
-        <v>35</v>
-      </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6936,16 +6933,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6956,16 +6953,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7042,16 +7039,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7060,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,58 +7122,58 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6227880</v>
+        <v>6240263</v>
       </c>
       <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45199.75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="2">
-        <v>45199.625</v>
-      </c>
-      <c r="E78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
-      </c>
       <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>2</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J78">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="K78">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L78">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="M78">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="N78">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q78">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R78">
         <v>1.925</v>
       </c>
       <c r="S78">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T78">
         <v>1.975</v>
@@ -7185,25 +7182,25 @@
         <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7211,58 +7208,58 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6240263</v>
+        <v>6227880</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45199.75</v>
+        <v>45199.625</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J79">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L79">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="M79">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="N79">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P79">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q79">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R79">
         <v>1.925</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T79">
         <v>1.975</v>
@@ -7271,25 +7268,25 @@
         <v>1.825</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7300,16 +7297,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7318,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,64 +7380,64 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6227882</v>
+        <v>6240262</v>
       </c>
       <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45205.97916666666</v>
+      </c>
+      <c r="E81" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="2">
-        <v>45205.85416666666</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>32</v>
       </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L81">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M81">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
+        <v>3.6</v>
+      </c>
+      <c r="O81">
+        <v>1.95</v>
+      </c>
+      <c r="P81">
+        <v>0.5</v>
+      </c>
+      <c r="Q81">
+        <v>1.825</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
         <v>3.25</v>
       </c>
-      <c r="O81">
-        <v>2.3</v>
-      </c>
-      <c r="P81">
-        <v>0.25</v>
-      </c>
-      <c r="Q81">
-        <v>1.75</v>
-      </c>
-      <c r="R81">
-        <v>2.05</v>
-      </c>
-      <c r="S81">
-        <v>2.5</v>
-      </c>
       <c r="T81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
         <v>-1</v>
@@ -7449,19 +7446,19 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7469,65 +7466,65 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6240262</v>
+        <v>6227882</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45205.97916666666</v>
+        <v>45205.85416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
         <v>33</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>1</v>
       </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
+        <v>2.3</v>
+      </c>
+      <c r="M82">
+        <v>2.7</v>
+      </c>
+      <c r="N82">
+        <v>3.25</v>
+      </c>
+      <c r="O82">
+        <v>2.3</v>
+      </c>
+      <c r="P82">
+        <v>0.25</v>
+      </c>
+      <c r="Q82">
+        <v>1.75</v>
+      </c>
+      <c r="R82">
         <v>2.05</v>
       </c>
-      <c r="M82">
-        <v>3.1</v>
-      </c>
-      <c r="N82">
-        <v>3.6</v>
-      </c>
-      <c r="O82">
-        <v>1.95</v>
-      </c>
-      <c r="P82">
-        <v>0.5</v>
-      </c>
-      <c r="Q82">
+      <c r="S82">
+        <v>2.5</v>
+      </c>
+      <c r="T82">
         <v>1.825</v>
       </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.975</v>
       </c>
-      <c r="S82">
-        <v>3.25</v>
-      </c>
-      <c r="T82">
-        <v>1.95</v>
-      </c>
-      <c r="U82">
-        <v>1.85</v>
-      </c>
       <c r="V82">
         <v>-1</v>
       </c>
@@ -7535,19 +7532,19 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>1.05</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA82">
-        <v>-0.5</v>
-      </c>
-      <c r="AB82">
-        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7558,16 +7555,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7576,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7644,16 +7641,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7662,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7730,16 +7727,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7748,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,55 +7810,55 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7334555</v>
+        <v>7314311</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>45213.625</v>
+        <v>45213.75</v>
       </c>
       <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
         <v>34</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
         <v>36</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>37</v>
-      </c>
       <c r="J86">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K86">
         <v>3.2</v>
       </c>
       <c r="L86">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M86">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
         <v>3.2</v>
       </c>
       <c r="O86">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
         <v>2.5</v>
@@ -7879,19 +7876,19 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7899,55 +7896,55 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7314311</v>
+        <v>7334555</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45213.75</v>
+        <v>45213.625</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>1</v>
       </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J87">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K87">
         <v>3.2</v>
       </c>
       <c r="L87">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
         <v>3.2</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
         <v>2.5</v>
@@ -7965,19 +7962,19 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7988,16 +7985,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8006,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,67 +8068,67 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7802934</v>
+        <v>7803361</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45395.58333333334</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
         <v>33</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K89">
+        <v>3.5</v>
+      </c>
+      <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>1.95</v>
+      </c>
+      <c r="N89">
+        <v>3.25</v>
+      </c>
+      <c r="O89">
         <v>3.4</v>
       </c>
-      <c r="L89">
-        <v>2.1</v>
-      </c>
-      <c r="M89">
-        <v>2.4</v>
-      </c>
-      <c r="N89">
-        <v>3.4</v>
-      </c>
-      <c r="O89">
-        <v>2.5</v>
-      </c>
       <c r="P89">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8140,16 +8137,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8160,16 +8157,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8178,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,67 +8240,67 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7803361</v>
+        <v>7802934</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
-        <v>45395.83333333334</v>
+        <v>45395.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
         <v>1</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J91">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K91">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M91">
+        <v>2.4</v>
+      </c>
+      <c r="N91">
+        <v>3.4</v>
+      </c>
+      <c r="O91">
+        <v>2.5</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>1.85</v>
+      </c>
+      <c r="R91">
         <v>1.95</v>
       </c>
-      <c r="N91">
-        <v>3.25</v>
-      </c>
-      <c r="O91">
-        <v>3.4</v>
-      </c>
-      <c r="P91">
-        <v>-0.25</v>
-      </c>
-      <c r="Q91">
-        <v>1.775</v>
-      </c>
-      <c r="R91">
-        <v>2.025</v>
-      </c>
       <c r="S91">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>0.95</v>
+        <v>1.4</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8312,16 +8309,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8332,16 +8329,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8350,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8418,16 +8415,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8436,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8504,16 +8501,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8522,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8590,16 +8587,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8608,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8676,16 +8673,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8762,16 +8759,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8780,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8844,65 +8841,172 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>27</v>
+      <c r="B98">
+        <v>7802876</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
-        <v>45410.75</v>
+        <v>45409.70833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>38</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q98">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
+        <v>1.8</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-0.5</v>
+      </c>
+      <c r="Z98">
+        <v>0.45</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7802938</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>3.3</v>
+      </c>
+      <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
+        <v>3.1</v>
+      </c>
+      <c r="O99">
+        <v>2.875</v>
+      </c>
+      <c r="P99">
+        <v>-0.25</v>
+      </c>
+      <c r="Q99">
+        <v>2.025</v>
+      </c>
+      <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.25</v>
+      </c>
+      <c r="T99">
+        <v>1.95</v>
+      </c>
+      <c r="U99">
         <v>1.85</v>
       </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
+      <c r="V99">
+        <v>-1</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>1.875</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,49 +1704,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6227818</v>
+        <v>6227817</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45098.95833333334</v>
+        <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K15">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M15">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
         <v>1.95</v>
@@ -1758,31 +1758,31 @@
         <v>2.25</v>
       </c>
       <c r="T15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1790,49 +1790,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6227817</v>
+        <v>6227818</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45098.83333333334</v>
+        <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q16">
         <v>1.95</v>
@@ -1844,31 +1844,31 @@
         <v>2.25</v>
       </c>
       <c r="T16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W16">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2134,82 +2134,82 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6227821</v>
+        <v>6227822</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45107.79166666666</v>
+        <v>45107.9375</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20">
+        <v>1.727</v>
+      </c>
+      <c r="K20">
+        <v>3.4</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.833</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>-0.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.85</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>2.5</v>
+      </c>
+      <c r="T20">
+        <v>2.075</v>
+      </c>
+      <c r="U20">
+        <v>1.725</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
         <v>2.4</v>
       </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>2.75</v>
-      </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>2.9</v>
-      </c>
-      <c r="O20">
-        <v>2.4</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2.025</v>
-      </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.25</v>
-      </c>
-      <c r="T20">
-        <v>1.8</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>1.75</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2220,82 +2220,82 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6227822</v>
+        <v>6227821</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45107.9375</v>
+        <v>45107.79166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>2.4</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>2.75</v>
+      </c>
+      <c r="M21">
+        <v>2.75</v>
+      </c>
+      <c r="N21">
+        <v>2.9</v>
+      </c>
+      <c r="O21">
+        <v>2.4</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.025</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.25</v>
+      </c>
+      <c r="T21">
+        <v>1.8</v>
+      </c>
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21">
-        <v>1.727</v>
-      </c>
-      <c r="K21">
-        <v>3.4</v>
-      </c>
-      <c r="L21">
-        <v>4.333</v>
-      </c>
-      <c r="M21">
-        <v>1.833</v>
-      </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>-0.5</v>
-      </c>
-      <c r="Q21">
-        <v>1.85</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>2.5</v>
-      </c>
-      <c r="T21">
-        <v>2.075</v>
-      </c>
-      <c r="U21">
-        <v>1.725</v>
-      </c>
       <c r="V21">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -3080,85 +3080,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6227830</v>
+        <v>6227831</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>45122.70833333334</v>
+        <v>45122.83333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
+        <v>1.7</v>
+      </c>
+      <c r="N31">
+        <v>3.5</v>
+      </c>
+      <c r="O31">
+        <v>4.2</v>
+      </c>
+      <c r="P31">
+        <v>-0.75</v>
+      </c>
+      <c r="Q31">
+        <v>1.85</v>
+      </c>
+      <c r="R31">
         <v>1.95</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>3.75</v>
-      </c>
-      <c r="P31">
-        <v>-0.5</v>
-      </c>
-      <c r="Q31">
-        <v>1.975</v>
-      </c>
-      <c r="R31">
-        <v>1.825</v>
-      </c>
       <c r="S31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
+        <v>-1</v>
+      </c>
+      <c r="W31">
+        <v>2.5</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
         <v>0.95</v>
       </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3166,85 +3166,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6227831</v>
+        <v>6227830</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45122.83333333334</v>
+        <v>45122.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J32">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
         <v>3.25</v>
       </c>
-      <c r="L32">
-        <v>3.5</v>
-      </c>
       <c r="M32">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q32">
+        <v>1.975</v>
+      </c>
+      <c r="R32">
+        <v>1.825</v>
+      </c>
+      <c r="S32">
+        <v>2.25</v>
+      </c>
+      <c r="T32">
         <v>1.85</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>2.5</v>
-      </c>
-      <c r="T32">
-        <v>1.9</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
       <c r="V32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
         <v>0.95</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -5918,85 +5918,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6227870</v>
+        <v>6240267</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45178.83333333334</v>
+        <v>45178.95833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J64">
+        <v>3.5</v>
+      </c>
+      <c r="K64">
+        <v>3.5</v>
+      </c>
+      <c r="L64">
+        <v>1.85</v>
+      </c>
+      <c r="M64">
+        <v>3.3</v>
+      </c>
+      <c r="N64">
+        <v>3.6</v>
+      </c>
+      <c r="O64">
         <v>1.909</v>
       </c>
-      <c r="K64">
-        <v>3.4</v>
-      </c>
-      <c r="L64">
-        <v>3.4</v>
-      </c>
-      <c r="M64">
-        <v>2.15</v>
-      </c>
-      <c r="N64">
-        <v>3.4</v>
-      </c>
-      <c r="O64">
-        <v>2.8</v>
-      </c>
       <c r="P64">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
         <v>2.5</v>
       </c>
       <c r="T64">
+        <v>1.75</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="U64">
-        <v>1.85</v>
-      </c>
       <c r="V64">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z64">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6004,85 +6004,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6240267</v>
+        <v>6227870</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45178.95833333334</v>
+        <v>45178.83333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J65">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6778,43 +6778,43 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6227876</v>
+        <v>6240264</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45192.58333333334</v>
+        <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K74">
         <v>3.4</v>
       </c>
       <c r="L74">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O74">
         <v>1.833</v>
@@ -6823,40 +6823,40 @@
         <v>0.5</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
         <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6864,43 +6864,43 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6240264</v>
+        <v>6227876</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45192.70833333334</v>
+        <v>45192.58333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K75">
         <v>3.4</v>
       </c>
       <c r="L75">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O75">
         <v>1.833</v>
@@ -6909,40 +6909,40 @@
         <v>0.5</v>
       </c>
       <c r="Q75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
         <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7380,65 +7380,65 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6240262</v>
+        <v>6227882</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45205.97916666666</v>
+        <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>1</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K81">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L81">
+        <v>2.3</v>
+      </c>
+      <c r="M81">
+        <v>2.7</v>
+      </c>
+      <c r="N81">
+        <v>3.25</v>
+      </c>
+      <c r="O81">
+        <v>2.3</v>
+      </c>
+      <c r="P81">
+        <v>0.25</v>
+      </c>
+      <c r="Q81">
+        <v>1.75</v>
+      </c>
+      <c r="R81">
         <v>2.05</v>
       </c>
-      <c r="M81">
-        <v>3.1</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>1.95</v>
-      </c>
-      <c r="P81">
-        <v>0.5</v>
-      </c>
-      <c r="Q81">
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
         <v>1.825</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.975</v>
       </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
-      <c r="T81">
-        <v>1.95</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
       <c r="V81">
         <v>-1</v>
       </c>
@@ -7446,19 +7446,19 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>1.05</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA81">
-        <v>-0.5</v>
-      </c>
-      <c r="AB81">
-        <v>0.425</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7466,64 +7466,64 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6227882</v>
+        <v>6240262</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45205.85416666666</v>
+        <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
         <v>36</v>
       </c>
       <c r="J82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K82">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M82">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
+        <v>1.95</v>
+      </c>
+      <c r="P82">
+        <v>0.5</v>
+      </c>
+      <c r="Q82">
+        <v>1.825</v>
+      </c>
+      <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
         <v>3.25</v>
       </c>
-      <c r="O82">
-        <v>2.3</v>
-      </c>
-      <c r="P82">
-        <v>0.25</v>
-      </c>
-      <c r="Q82">
-        <v>1.75</v>
-      </c>
-      <c r="R82">
-        <v>2.05</v>
-      </c>
-      <c r="S82">
-        <v>2.5</v>
-      </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
         <v>-1</v>
@@ -7532,19 +7532,19 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -8068,67 +8068,67 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7803361</v>
+        <v>7802934</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45395.83333333334</v>
+        <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
         <v>1</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>38</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M89">
+        <v>2.4</v>
+      </c>
+      <c r="N89">
+        <v>3.4</v>
+      </c>
+      <c r="O89">
+        <v>2.5</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1.85</v>
+      </c>
+      <c r="R89">
         <v>1.95</v>
       </c>
-      <c r="N89">
-        <v>3.25</v>
-      </c>
-      <c r="O89">
-        <v>3.4</v>
-      </c>
-      <c r="P89">
-        <v>-0.25</v>
-      </c>
-      <c r="Q89">
-        <v>1.775</v>
-      </c>
-      <c r="R89">
-        <v>2.025</v>
-      </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>0.95</v>
+        <v>1.4</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8137,16 +8137,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8240,67 +8240,67 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7802934</v>
+        <v>7803361</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2">
-        <v>45395.58333333334</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
         <v>38</v>
       </c>
       <c r="J91">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K91">
+        <v>3.5</v>
+      </c>
+      <c r="L91">
+        <v>3.5</v>
+      </c>
+      <c r="M91">
+        <v>1.95</v>
+      </c>
+      <c r="N91">
+        <v>3.25</v>
+      </c>
+      <c r="O91">
         <v>3.4</v>
       </c>
-      <c r="L91">
-        <v>2.1</v>
-      </c>
-      <c r="M91">
-        <v>2.4</v>
-      </c>
-      <c r="N91">
-        <v>3.4</v>
-      </c>
-      <c r="O91">
-        <v>2.5</v>
-      </c>
       <c r="P91">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q91">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S91">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8309,16 +8309,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8842,82 +8842,82 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7802876</v>
+        <v>7802938</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2">
-        <v>45409.70833333334</v>
+        <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>36</v>
+      </c>
+      <c r="J98">
         <v>2</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
-        <v>38</v>
-      </c>
-      <c r="J98">
-        <v>1.6</v>
-      </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -8928,85 +8928,171 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7802938</v>
+        <v>7802876</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2">
-        <v>45409.58333333334</v>
+        <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
-      <c r="H99">
-        <v>3</v>
-      </c>
       <c r="I99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J99">
+        <v>1.6</v>
+      </c>
+      <c r="K99">
+        <v>3.75</v>
+      </c>
+      <c r="L99">
+        <v>4.5</v>
+      </c>
+      <c r="M99">
+        <v>1.4</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>6.5</v>
+      </c>
+      <c r="P99">
+        <v>-1.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.9</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
+        <v>1.8</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="K99">
+      <c r="V99">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-0.5</v>
+      </c>
+      <c r="Z99">
+        <v>0.45</v>
+      </c>
+      <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7803364</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45410.75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
         <v>3.3</v>
       </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
+      <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>-0.5</v>
+      </c>
+      <c r="Q100">
+        <v>1.825</v>
+      </c>
+      <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
         <v>2.25</v>
       </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>2.875</v>
-      </c>
-      <c r="P99">
-        <v>-0.25</v>
-      </c>
-      <c r="Q99">
-        <v>2.025</v>
-      </c>
-      <c r="R99">
-        <v>1.775</v>
-      </c>
-      <c r="S99">
-        <v>2.25</v>
-      </c>
-      <c r="T99">
+      <c r="T100">
         <v>1.95</v>
       </c>
-      <c r="U99">
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>1.875</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA99">
-        <v>0.95</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
+      <c r="V100">
+        <v>-1</v>
+      </c>
+      <c r="W100">
+        <v>2.1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>Vancouver FC</t>
   </si>
   <si>
-    <t>Cavalry FC</t>
+    <t>Atletico Ottawa</t>
   </si>
   <si>
-    <t>Atletico Ottawa</t>
+    <t>Cavalry FC</t>
   </si>
   <si>
     <t>Valour FC</t>
@@ -127,10 +127,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -672,85 +672,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6227808</v>
+        <v>6227809</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45080.70833333334</v>
+        <v>45080.83333333334</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
       </c>
       <c r="J3">
+        <v>2.1</v>
+      </c>
+      <c r="K3">
+        <v>3.1</v>
+      </c>
+      <c r="L3">
         <v>3.2</v>
       </c>
-      <c r="K3">
-        <v>2.75</v>
-      </c>
-      <c r="L3">
-        <v>2.3</v>
-      </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>2.25</v>
-      </c>
       <c r="T3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -758,85 +758,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6227809</v>
+        <v>6227808</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45080.83333333334</v>
+        <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S4">
+        <v>2.25</v>
+      </c>
+      <c r="T4">
+        <v>1.925</v>
+      </c>
+      <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="T4">
-        <v>1.775</v>
-      </c>
-      <c r="U4">
-        <v>2.025</v>
-      </c>
-      <c r="V4">
-        <v>1.5</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -942,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1197,7 +1197,7 @@
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1369,7 +1369,7 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1885,7 +1885,7 @@
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2060,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2146,7 +2146,7 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>1.727</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>2.4</v>
@@ -2318,7 +2318,7 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2576,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2650,58 +2650,58 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6227825</v>
+        <v>6227826</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>45116.66666666666</v>
+        <v>45116.85416666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L26">
+        <v>2.5</v>
+      </c>
+      <c r="M26">
+        <v>3.1</v>
+      </c>
+      <c r="N26">
+        <v>3.2</v>
+      </c>
+      <c r="O26">
+        <v>2.1</v>
+      </c>
+      <c r="P26">
+        <v>0.25</v>
+      </c>
+      <c r="Q26">
+        <v>1.9</v>
+      </c>
+      <c r="R26">
+        <v>1.9</v>
+      </c>
+      <c r="S26">
         <v>2.75</v>
-      </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>3.1</v>
-      </c>
-      <c r="O26">
-        <v>2.55</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1.85</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>2.25</v>
       </c>
       <c r="T26">
         <v>1.975</v>
@@ -2710,25 +2710,25 @@
         <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2736,58 +2736,58 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227826</v>
+        <v>6227825</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45116.85416666666</v>
+        <v>45116.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
+        <v>2.45</v>
+      </c>
+      <c r="N27">
         <v>3.1</v>
       </c>
-      <c r="N27">
-        <v>3.2</v>
-      </c>
       <c r="O27">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T27">
         <v>1.975</v>
@@ -2796,25 +2796,25 @@
         <v>1.825</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2917,10 +2917,10 @@
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
         <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>1.909</v>
@@ -3175,7 +3175,7 @@
         <v>45122.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3261,7 +3261,7 @@
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3436,7 +3436,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3863,10 +3863,10 @@
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -4035,7 +4035,7 @@
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4121,7 +4121,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
         <v>32</v>
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4382,7 +4382,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4456,85 +4456,85 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6240271</v>
+        <v>6227842</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45150.66666666666</v>
+        <v>45150.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
         <v>38</v>
       </c>
       <c r="J47">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="K47">
+        <v>3.2</v>
+      </c>
+      <c r="L47">
+        <v>4.5</v>
+      </c>
+      <c r="M47">
+        <v>1.5</v>
+      </c>
+      <c r="N47">
         <v>3.6</v>
       </c>
-      <c r="L47">
-        <v>7</v>
-      </c>
-      <c r="M47">
-        <v>1.4</v>
-      </c>
-      <c r="N47">
-        <v>3.75</v>
-      </c>
       <c r="O47">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P47">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
         <v>2.75</v>
       </c>
       <c r="T47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4542,85 +4542,85 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6227842</v>
+        <v>6240271</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>45150.83333333334</v>
+        <v>45150.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
       </c>
       <c r="J48">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="K48">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L48">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O48">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P48">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
         <v>2.75</v>
       </c>
       <c r="T48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4640,7 +4640,7 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4981,7 +4981,7 @@
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5144,22 +5144,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6227862</v>
+        <v>6227863</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45164.66666666666</v>
+        <v>45164.83333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5168,61 +5168,61 @@
         <v>38</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="M55">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N55">
         <v>3.1</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5230,22 +5230,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6227863</v>
+        <v>6227862</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45164.83333333334</v>
+        <v>45164.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5254,61 +5254,61 @@
         <v>37</v>
       </c>
       <c r="J56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N56">
         <v>3.1</v>
       </c>
       <c r="O56">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W56">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5325,7 +5325,7 @@
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5411,10 +5411,10 @@
         <v>45171.83333333334</v>
       </c>
       <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
         <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>1.7</v>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.75</v>
@@ -5930,7 +5930,7 @@
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>3.5</v>
@@ -6016,7 +6016,7 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6102,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6271,7 +6271,7 @@
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
         <v>28</v>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6532,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6692,85 +6692,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6227877</v>
+        <v>6227876</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45192.83333333334</v>
+        <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="M73">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O73">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="P73">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q73">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6864,85 +6864,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6227876</v>
+        <v>6227877</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45192.58333333334</v>
+        <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J75">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="P75">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6959,7 +6959,7 @@
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
         <v>31</v>
@@ -7045,7 +7045,7 @@
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7122,58 +7122,58 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6240263</v>
+        <v>6227880</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45199.75</v>
+        <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
         <v>1</v>
       </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
       <c r="I78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J78">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="M78">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="N78">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P78">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q78">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R78">
         <v>1.925</v>
       </c>
       <c r="S78">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
         <v>1.975</v>
@@ -7182,25 +7182,25 @@
         <v>1.825</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7208,58 +7208,58 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6227880</v>
+        <v>6240263</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45199.625</v>
+        <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>2</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J79">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="K79">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="M79">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="N79">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O79">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P79">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q79">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R79">
         <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
         <v>1.975</v>
@@ -7268,25 +7268,25 @@
         <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7306,7 +7306,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7380,64 +7380,64 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6227882</v>
+        <v>6240262</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45205.85416666666</v>
+        <v>45205.97916666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
       </c>
       <c r="J81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L81">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M81">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
+        <v>3.6</v>
+      </c>
+      <c r="O81">
+        <v>1.95</v>
+      </c>
+      <c r="P81">
+        <v>0.5</v>
+      </c>
+      <c r="Q81">
+        <v>1.825</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
         <v>3.25</v>
       </c>
-      <c r="O81">
-        <v>2.3</v>
-      </c>
-      <c r="P81">
-        <v>0.25</v>
-      </c>
-      <c r="Q81">
-        <v>1.75</v>
-      </c>
-      <c r="R81">
-        <v>2.05</v>
-      </c>
-      <c r="S81">
-        <v>2.5</v>
-      </c>
       <c r="T81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
         <v>-1</v>
@@ -7446,19 +7446,19 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7466,65 +7466,65 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6240262</v>
+        <v>6227882</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45205.97916666666</v>
+        <v>45205.85416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>1</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
       </c>
       <c r="I82" t="s">
         <v>36</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
+        <v>2.3</v>
+      </c>
+      <c r="M82">
+        <v>2.7</v>
+      </c>
+      <c r="N82">
+        <v>3.25</v>
+      </c>
+      <c r="O82">
+        <v>2.3</v>
+      </c>
+      <c r="P82">
+        <v>0.25</v>
+      </c>
+      <c r="Q82">
+        <v>1.75</v>
+      </c>
+      <c r="R82">
         <v>2.05</v>
       </c>
-      <c r="M82">
-        <v>3.1</v>
-      </c>
-      <c r="N82">
-        <v>3.6</v>
-      </c>
-      <c r="O82">
-        <v>1.95</v>
-      </c>
-      <c r="P82">
-        <v>0.5</v>
-      </c>
-      <c r="Q82">
+      <c r="S82">
+        <v>2.5</v>
+      </c>
+      <c r="T82">
         <v>1.825</v>
       </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.975</v>
       </c>
-      <c r="S82">
-        <v>3.25</v>
-      </c>
-      <c r="T82">
-        <v>1.95</v>
-      </c>
-      <c r="U82">
-        <v>1.85</v>
-      </c>
       <c r="V82">
         <v>-1</v>
       </c>
@@ -7532,19 +7532,19 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>1.05</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA82">
-        <v>-0.5</v>
-      </c>
-      <c r="AB82">
-        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
         <v>29</v>
       </c>
-      <c r="F83" t="s">
-        <v>35</v>
-      </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.825</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.825</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7819,7 +7819,7 @@
         <v>45213.75</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -7994,7 +7994,7 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,7 +8077,7 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
@@ -8089,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8166,7 +8166,7 @@
         <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8593,10 +8593,10 @@
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8842,82 +8842,82 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7802938</v>
+        <v>7802876</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2">
-        <v>45409.58333333334</v>
+        <v>45409.70833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
         <v>1</v>
       </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
       <c r="I98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J98">
+        <v>1.6</v>
+      </c>
+      <c r="K98">
+        <v>3.75</v>
+      </c>
+      <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>1.4</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>6.5</v>
+      </c>
+      <c r="P98">
+        <v>-1.25</v>
+      </c>
+      <c r="Q98">
+        <v>1.9</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>2.5</v>
+      </c>
+      <c r="T98">
+        <v>1.8</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="K98">
-        <v>3.3</v>
-      </c>
-      <c r="L98">
-        <v>3.2</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>2.875</v>
-      </c>
-      <c r="P98">
-        <v>-0.25</v>
-      </c>
-      <c r="Q98">
-        <v>2.025</v>
-      </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.25</v>
-      </c>
-      <c r="T98">
-        <v>1.95</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -8928,82 +8928,82 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7802876</v>
+        <v>7802938</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2">
-        <v>45409.70833333334</v>
+        <v>45409.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
         <v>2</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>38</v>
-      </c>
-      <c r="J99">
-        <v>1.6</v>
-      </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9023,7 +9023,7 @@
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J100">
         <v>2</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -103,10 +103,10 @@
     <t>Vancouver FC</t>
   </si>
   <si>
-    <t>Atletico Ottawa</t>
+    <t>Cavalry FC</t>
   </si>
   <si>
-    <t>Cavalry FC</t>
+    <t>Atletico Ottawa</t>
   </si>
   <si>
     <t>Valour FC</t>
@@ -127,10 +127,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -672,85 +672,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6227809</v>
+        <v>6227808</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45080.83333333334</v>
+        <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
+        <v>2.25</v>
+      </c>
+      <c r="T3">
+        <v>1.925</v>
+      </c>
+      <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>1.775</v>
-      </c>
-      <c r="U3">
-        <v>2.025</v>
-      </c>
-      <c r="V3">
-        <v>1.5</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -758,85 +758,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6227808</v>
+        <v>6227809</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45080.70833333334</v>
+        <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
+        <v>2.1</v>
+      </c>
+      <c r="K4">
+        <v>3.1</v>
+      </c>
+      <c r="L4">
         <v>3.2</v>
       </c>
-      <c r="K4">
-        <v>2.75</v>
-      </c>
-      <c r="L4">
-        <v>2.3</v>
-      </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>2.25</v>
-      </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -942,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1197,7 +1197,7 @@
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1369,7 +1369,7 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1885,7 +1885,7 @@
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2060,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2134,82 +2134,82 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6227822</v>
+        <v>6227821</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45107.9375</v>
+        <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
       </c>
       <c r="J20">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M20">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="U20">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2220,82 +2220,82 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6227821</v>
+        <v>6227822</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45107.79166666666</v>
+        <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21">
+        <v>1.727</v>
+      </c>
+      <c r="K21">
+        <v>3.4</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.833</v>
+      </c>
+      <c r="N21">
+        <v>3.4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>-0.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.85</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>2.5</v>
+      </c>
+      <c r="T21">
+        <v>2.075</v>
+      </c>
+      <c r="U21">
+        <v>1.725</v>
+      </c>
+      <c r="V21">
+        <v>-1</v>
+      </c>
+      <c r="W21">
         <v>2.4</v>
       </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>2.75</v>
-      </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>2.9</v>
-      </c>
-      <c r="O21">
-        <v>2.4</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2.025</v>
-      </c>
-      <c r="R21">
-        <v>1.775</v>
-      </c>
-      <c r="S21">
-        <v>2.25</v>
-      </c>
-      <c r="T21">
-        <v>1.8</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.75</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2576,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2650,58 +2650,58 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6227826</v>
+        <v>6227825</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>45116.85416666666</v>
+        <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J26">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M26">
+        <v>2.45</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="N26">
-        <v>3.2</v>
-      </c>
       <c r="O26">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="P26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T26">
         <v>1.975</v>
@@ -2710,25 +2710,25 @@
         <v>1.825</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2736,58 +2736,58 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227825</v>
+        <v>6227826</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45116.66666666666</v>
+        <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L27">
+        <v>2.5</v>
+      </c>
+      <c r="M27">
+        <v>3.1</v>
+      </c>
+      <c r="N27">
+        <v>3.2</v>
+      </c>
+      <c r="O27">
+        <v>2.1</v>
+      </c>
+      <c r="P27">
+        <v>0.25</v>
+      </c>
+      <c r="Q27">
+        <v>1.9</v>
+      </c>
+      <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
         <v>2.75</v>
-      </c>
-      <c r="M27">
-        <v>2.45</v>
-      </c>
-      <c r="N27">
-        <v>3.1</v>
-      </c>
-      <c r="O27">
-        <v>2.55</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1.85</v>
-      </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>2.25</v>
       </c>
       <c r="T27">
         <v>1.975</v>
@@ -2796,25 +2796,25 @@
         <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2917,10 +2917,10 @@
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3080,85 +3080,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6227831</v>
+        <v>6227830</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>45122.83333333334</v>
+        <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
       </c>
       <c r="J31">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
         <v>3.25</v>
       </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
       <c r="M31">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q31">
+        <v>1.975</v>
+      </c>
+      <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
+        <v>2.25</v>
+      </c>
+      <c r="T31">
         <v>1.85</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>2.5</v>
-      </c>
-      <c r="T31">
-        <v>1.9</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
       <c r="V31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.95</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3166,85 +3166,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6227830</v>
+        <v>6227831</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45122.70833333334</v>
+        <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>37</v>
       </c>
       <c r="J32">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
+        <v>1.7</v>
+      </c>
+      <c r="N32">
+        <v>3.5</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>-0.75</v>
+      </c>
+      <c r="Q32">
+        <v>1.85</v>
+      </c>
+      <c r="R32">
         <v>1.95</v>
       </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>3.75</v>
-      </c>
-      <c r="P32">
-        <v>-0.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.975</v>
-      </c>
-      <c r="R32">
-        <v>1.825</v>
-      </c>
       <c r="S32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
+        <v>-1</v>
+      </c>
+      <c r="W32">
+        <v>2.5</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>0.95</v>
       </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3261,7 +3261,7 @@
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3436,7 +3436,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3510,46 +3510,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6227834</v>
+        <v>6227833</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45130.83333333334</v>
+        <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M36">
         <v>2.625</v>
       </c>
       <c r="N36">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O36">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3564,31 +3564,31 @@
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3596,46 +3596,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6227833</v>
+        <v>6227834</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45130.70833333334</v>
+        <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M37">
         <v>2.625</v>
       </c>
       <c r="N37">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O37">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3650,31 +3650,31 @@
         <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.8</v>
+      </c>
+      <c r="AA37">
         <v>1</v>
       </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3863,10 +3863,10 @@
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
         <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -4035,7 +4035,7 @@
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4121,7 +4121,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>32</v>
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4382,7 +4382,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4456,85 +4456,85 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6227842</v>
+        <v>6240271</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45150.83333333334</v>
+        <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>38</v>
       </c>
       <c r="J47">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="K47">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O47">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P47">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
         <v>2.75</v>
       </c>
       <c r="T47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4542,85 +4542,85 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6240271</v>
+        <v>6227842</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>45150.66666666666</v>
+        <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
       </c>
       <c r="J48">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="K48">
+        <v>3.2</v>
+      </c>
+      <c r="L48">
+        <v>4.5</v>
+      </c>
+      <c r="M48">
+        <v>1.5</v>
+      </c>
+      <c r="N48">
         <v>3.6</v>
       </c>
-      <c r="L48">
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <v>1.4</v>
-      </c>
-      <c r="N48">
-        <v>3.75</v>
-      </c>
       <c r="O48">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P48">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
         <v>2.75</v>
       </c>
       <c r="T48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4640,7 +4640,7 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4981,7 +4981,7 @@
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5144,22 +5144,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6227863</v>
+        <v>6227862</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45164.83333333334</v>
+        <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5168,61 +5168,61 @@
         <v>38</v>
       </c>
       <c r="J55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N55">
         <v>3.1</v>
       </c>
       <c r="O55">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5230,22 +5230,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6227862</v>
+        <v>6227863</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45164.66666666666</v>
+        <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5254,61 +5254,61 @@
         <v>37</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="M56">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N56">
         <v>3.1</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5325,7 +5325,7 @@
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5402,82 +5402,82 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6227866</v>
+        <v>6227865</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45171.83333333334</v>
+        <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>1</v>
       </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J58">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K58">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q58">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T58">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5488,82 +5488,82 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6227865</v>
+        <v>6227866</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45171.70833333334</v>
+        <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J59">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="M59">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="P59">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y59">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
@@ -5746,85 +5746,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6227869</v>
+        <v>6227868</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>45177.95833333334</v>
+        <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J62">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
+        <v>3.4</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="O62">
-        <v>5</v>
-      </c>
       <c r="P62">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
         <v>-1</v>
       </c>
       <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>2.6</v>
       </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5832,85 +5832,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6227868</v>
+        <v>6227869</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45177.83333333334</v>
+        <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J63">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
+        <v>1.6</v>
+      </c>
+      <c r="N63">
+        <v>3.6</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>-0.75</v>
+      </c>
+      <c r="Q63">
+        <v>1.8</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2.5</v>
+      </c>
+      <c r="T63">
         <v>1.85</v>
       </c>
-      <c r="N63">
-        <v>3.4</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>-0.5</v>
-      </c>
-      <c r="Q63">
-        <v>1.9</v>
-      </c>
-      <c r="R63">
-        <v>1.9</v>
-      </c>
-      <c r="S63">
-        <v>2.75</v>
-      </c>
-      <c r="T63">
-        <v>1.825</v>
-      </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5918,85 +5918,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6240267</v>
+        <v>6227870</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45178.95833333334</v>
+        <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
         <v>29</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>37</v>
       </c>
       <c r="J64">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="K64">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O64">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
         <v>2.5</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6004,85 +6004,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6227870</v>
+        <v>6240267</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45178.83333333334</v>
+        <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>38</v>
       </c>
       <c r="J65">
+        <v>3.5</v>
+      </c>
+      <c r="K65">
+        <v>3.5</v>
+      </c>
+      <c r="L65">
+        <v>1.85</v>
+      </c>
+      <c r="M65">
+        <v>3.3</v>
+      </c>
+      <c r="N65">
+        <v>3.6</v>
+      </c>
+      <c r="O65">
         <v>1.909</v>
       </c>
-      <c r="K65">
-        <v>3.4</v>
-      </c>
-      <c r="L65">
-        <v>3.4</v>
-      </c>
-      <c r="M65">
-        <v>2.15</v>
-      </c>
-      <c r="N65">
-        <v>3.4</v>
-      </c>
-      <c r="O65">
-        <v>2.8</v>
-      </c>
       <c r="P65">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
+        <v>1.75</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="U65">
-        <v>1.85</v>
-      </c>
       <c r="V65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z65">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6102,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6271,7 +6271,7 @@
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
         <v>28</v>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6532,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6704,7 +6704,7 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6959,7 +6959,7 @@
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
         <v>31</v>
@@ -7045,7 +7045,7 @@
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7306,7 +7306,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7380,65 +7380,65 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6240262</v>
+        <v>6227882</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45205.97916666666</v>
+        <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>1</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>36</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K81">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L81">
+        <v>2.3</v>
+      </c>
+      <c r="M81">
+        <v>2.7</v>
+      </c>
+      <c r="N81">
+        <v>3.25</v>
+      </c>
+      <c r="O81">
+        <v>2.3</v>
+      </c>
+      <c r="P81">
+        <v>0.25</v>
+      </c>
+      <c r="Q81">
+        <v>1.75</v>
+      </c>
+      <c r="R81">
         <v>2.05</v>
       </c>
-      <c r="M81">
-        <v>3.1</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>1.95</v>
-      </c>
-      <c r="P81">
-        <v>0.5</v>
-      </c>
-      <c r="Q81">
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
         <v>1.825</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.975</v>
       </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
-      <c r="T81">
-        <v>1.95</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
       <c r="V81">
         <v>-1</v>
       </c>
@@ -7446,19 +7446,19 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>1.05</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA81">
-        <v>-0.5</v>
-      </c>
-      <c r="AB81">
-        <v>0.425</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7466,64 +7466,64 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6227882</v>
+        <v>6240262</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45205.85416666666</v>
+        <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
         <v>36</v>
       </c>
       <c r="J82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K82">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M82">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
+        <v>1.95</v>
+      </c>
+      <c r="P82">
+        <v>0.5</v>
+      </c>
+      <c r="Q82">
+        <v>1.825</v>
+      </c>
+      <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
         <v>3.25</v>
       </c>
-      <c r="O82">
-        <v>2.3</v>
-      </c>
-      <c r="P82">
-        <v>0.25</v>
-      </c>
-      <c r="Q82">
-        <v>1.75</v>
-      </c>
-      <c r="R82">
-        <v>2.05</v>
-      </c>
-      <c r="S82">
-        <v>2.5</v>
-      </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
         <v>-1</v>
@@ -7532,19 +7532,19 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
         <v>30</v>
       </c>
-      <c r="F84" t="s">
-        <v>35</v>
-      </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7810,55 +7810,55 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7314311</v>
+        <v>7334555</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>45213.75</v>
+        <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>1</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
       </c>
       <c r="I86" t="s">
         <v>36</v>
       </c>
       <c r="J86">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K86">
         <v>3.2</v>
       </c>
       <c r="L86">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M86">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N86">
         <v>3.2</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
         <v>2.5</v>
@@ -7876,19 +7876,19 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7896,55 +7896,55 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7334555</v>
+        <v>7314311</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45213.625</v>
+        <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
         <v>36</v>
       </c>
       <c r="J87">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K87">
         <v>3.2</v>
       </c>
       <c r="L87">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M87">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
         <v>3.2</v>
       </c>
       <c r="O87">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
         <v>2.5</v>
@@ -7962,19 +7962,19 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7994,7 +7994,7 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8077,7 +8077,7 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
@@ -8089,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8166,7 +8166,7 @@
         <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8593,10 +8593,10 @@
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
         <v>29</v>
-      </c>
-      <c r="F95" t="s">
-        <v>30</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8842,82 +8842,82 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7802876</v>
+        <v>7802938</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2">
-        <v>45409.70833333334</v>
+        <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>36</v>
+      </c>
+      <c r="J98">
         <v>2</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
-        <v>37</v>
-      </c>
-      <c r="J98">
-        <v>1.6</v>
-      </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -8928,82 +8928,82 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7802938</v>
+        <v>7802876</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2">
-        <v>45409.58333333334</v>
+        <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
-      <c r="H99">
-        <v>3</v>
-      </c>
       <c r="I99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J99">
+        <v>1.6</v>
+      </c>
+      <c r="K99">
+        <v>3.75</v>
+      </c>
+      <c r="L99">
+        <v>4.5</v>
+      </c>
+      <c r="M99">
+        <v>1.4</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>6.5</v>
+      </c>
+      <c r="P99">
+        <v>-1.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.9</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
+        <v>1.8</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="K99">
-        <v>3.3</v>
-      </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>2.875</v>
-      </c>
-      <c r="P99">
-        <v>-0.25</v>
-      </c>
-      <c r="Q99">
-        <v>2.025</v>
-      </c>
-      <c r="R99">
-        <v>1.775</v>
-      </c>
-      <c r="S99">
-        <v>2.25</v>
-      </c>
-      <c r="T99">
-        <v>1.95</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
       <c r="V99">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9023,7 +9023,7 @@
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J100">
         <v>2</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7803365</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +592,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -607,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -675,16 +678,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -761,16 +764,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -847,16 +850,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -933,16 +936,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1019,16 +1022,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1105,16 +1108,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1123,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1191,16 +1194,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1277,16 +1280,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,16 +1366,16 @@
         <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1381,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1449,16 +1452,16 @@
         <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1467,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1535,16 +1538,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1621,16 +1624,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,16 +1710,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1725,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1793,16 +1796,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1879,16 +1882,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1897,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1965,16 +1968,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2051,16 +2054,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2137,16 +2140,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2223,16 +2226,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2241,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2309,16 +2312,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2395,16 +2398,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2413,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2481,16 +2484,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2499,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2567,16 +2570,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2585,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2653,16 +2656,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2739,16 +2742,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2757,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2825,16 +2828,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2843,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2911,16 +2914,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -2997,16 +3000,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3015,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3083,16 +3086,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3169,16 +3172,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3187,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3255,16 +3258,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3273,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3341,16 +3344,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3359,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3427,16 +3430,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3445,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,16 +3516,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3599,16 +3602,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3685,16 +3688,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3771,16 +3774,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3857,16 +3860,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
         <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3943,16 +3946,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3961,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4029,16 +4032,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4047,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4115,16 +4118,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4133,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4201,16 +4204,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4219,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4287,16 +4290,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4305,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4373,16 +4376,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4459,16 +4462,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4477,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4545,16 +4548,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4563,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4631,16 +4634,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4649,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4717,16 +4720,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
         <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4735,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4803,16 +4806,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4821,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4889,16 +4892,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4907,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4975,16 +4978,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4993,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5061,16 +5064,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5079,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5147,16 +5150,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5165,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5233,16 +5236,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5251,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5319,16 +5322,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5337,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,16 +5408,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5423,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5491,16 +5494,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
         <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5509,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5577,16 +5580,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5595,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5663,16 +5666,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
         <v>33</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5681,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,16 +5752,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
         <v>32</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5767,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5835,16 +5838,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5853,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5921,16 +5924,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5939,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6007,16 +6010,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6025,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6093,16 +6096,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6111,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6179,16 +6182,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6197,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6265,16 +6268,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>29</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6351,16 +6354,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6369,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6437,16 +6440,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6455,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6523,16 +6526,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6609,16 +6612,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6627,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,16 +6698,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6781,16 +6784,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6867,16 +6870,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6953,16 +6956,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6971,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7039,16 +7042,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7057,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,16 +7128,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7143,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7211,16 +7214,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7229,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7297,16 +7300,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,16 +7386,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7469,16 +7472,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7487,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7555,16 +7558,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7573,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7641,16 +7644,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7659,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7727,16 +7730,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7745,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,16 +7816,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7831,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7899,16 +7902,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7917,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7985,16 +7988,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,16 +8074,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8089,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8157,16 +8160,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,16 +8246,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8261,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8329,16 +8332,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8347,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8415,16 +8418,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8433,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8501,16 +8504,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8519,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8587,16 +8590,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8673,16 +8676,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8691,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8759,16 +8762,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8777,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8845,16 +8848,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8863,7 +8866,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8931,16 +8934,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8949,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9017,16 +9020,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9035,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9093,6 +9096,71 @@
       </c>
       <c r="AB100">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45415.91666666666</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="J101">
+        <v>1.65</v>
+      </c>
+      <c r="K101">
+        <v>3.8</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>1.65</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>-0.75</v>
+      </c>
+      <c r="Q101">
+        <v>1.85</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>2.75</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7803365</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -495,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,16 +589,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -610,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -678,16 +675,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -696,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -764,16 +761,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -850,16 +847,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -936,16 +933,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -954,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1022,16 +1019,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1108,16 +1105,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1126,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1194,16 +1191,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1212,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1280,16 +1277,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,67 +1360,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1432,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1449,67 +1446,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1518,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1538,16 +1535,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1624,16 +1621,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1710,16 +1707,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1728,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1796,16 +1793,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1882,16 +1879,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1968,16 +1965,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2054,16 +2051,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2140,16 +2137,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2226,16 +2223,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2244,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2312,16 +2309,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2330,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2398,16 +2395,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2416,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2484,16 +2481,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2502,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2570,16 +2567,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2588,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2656,16 +2653,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2742,16 +2739,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2828,16 +2825,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2846,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2914,16 +2911,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2932,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3000,16 +2997,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3086,16 +3083,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3172,16 +3169,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3190,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3258,16 +3255,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3344,16 +3341,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3362,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3430,16 +3427,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
         <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3448,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3516,16 +3513,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3534,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3602,16 +3599,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3620,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3688,16 +3685,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3774,16 +3771,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3860,16 +3857,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3878,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3946,16 +3943,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3964,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4032,16 +4029,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4050,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4118,16 +4115,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4136,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4204,16 +4201,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4290,16 +4287,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4308,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4376,16 +4373,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4394,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4462,16 +4459,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4480,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4548,16 +4545,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4566,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4634,16 +4631,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4720,16 +4717,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4738,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4806,16 +4803,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4824,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4892,16 +4889,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4910,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4978,16 +4975,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4996,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5064,16 +5061,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5150,16 +5147,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5236,16 +5233,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5322,16 +5319,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5340,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5408,16 +5405,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5426,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5494,16 +5491,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5512,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5580,16 +5577,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5598,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5666,16 +5663,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5684,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5752,16 +5749,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5770,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5838,16 +5835,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5856,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5924,16 +5921,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6010,16 +6007,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6028,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6096,16 +6093,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6114,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6182,16 +6179,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6268,16 +6265,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6286,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6354,16 +6351,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6372,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6440,16 +6437,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6458,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6526,16 +6523,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6544,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6612,16 +6609,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6630,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6698,16 +6695,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6716,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6784,16 +6781,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6802,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6870,16 +6867,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6888,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6956,16 +6953,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7042,16 +7039,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7060,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7128,16 +7125,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7146,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7214,16 +7211,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7232,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7300,16 +7297,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7318,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7386,16 +7383,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7404,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7472,16 +7469,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7490,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7558,16 +7555,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7576,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7644,16 +7641,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7662,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7730,16 +7727,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7748,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7816,16 +7813,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7834,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7902,16 +7899,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7920,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7988,16 +7985,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8006,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8074,16 +8071,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8092,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8160,16 +8157,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8178,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8246,16 +8243,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8264,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8332,16 +8329,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8350,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8418,16 +8415,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8436,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8504,16 +8501,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8522,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8590,16 +8587,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8608,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8676,16 +8673,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8762,16 +8759,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8780,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8848,16 +8845,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8866,7 +8863,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8934,16 +8931,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8952,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9020,16 +9017,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9038,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9102,20 +9099,29 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>27</v>
+      <c r="B101">
+        <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>38</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9133,7 +9139,7 @@
         <v>4</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P101">
         <v>-0.75</v>
@@ -9145,22 +9151,206 @@
         <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
+        <v>1.8</v>
+      </c>
+      <c r="U101">
         <v>2</v>
       </c>
-      <c r="U101">
+      <c r="V101">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.8</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7802939</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45416.83333333334</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>38</v>
+      </c>
+      <c r="J102">
+        <v>1.909</v>
+      </c>
+      <c r="K102">
+        <v>3.6</v>
+      </c>
+      <c r="L102">
+        <v>3.2</v>
+      </c>
+      <c r="M102">
         <v>1.8</v>
       </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
+      <c r="N102">
+        <v>3.5</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>-0.5</v>
+      </c>
+      <c r="Q102">
+        <v>1.825</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>2.25</v>
+      </c>
+      <c r="T102">
+        <v>1.8</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>0.8</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.825</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>-0.5</v>
+      </c>
+      <c r="AB102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7802940</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45417.625</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>38</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>3.25</v>
+      </c>
+      <c r="L103">
+        <v>3.25</v>
+      </c>
+      <c r="M103">
+        <v>1.615</v>
+      </c>
+      <c r="N103">
+        <v>3.6</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>-0.75</v>
+      </c>
+      <c r="Q103">
+        <v>1.8</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>2.5</v>
+      </c>
+      <c r="T103">
+        <v>1.95</v>
+      </c>
+      <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
+        <v>0.615</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.8</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1360,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1369,58 +1369,58 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1429,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1455,58 +1455,58 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1515,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.825</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.825</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1360,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1369,58 +1369,58 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1429,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1455,58 +1455,58 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1515,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.825</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.825</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -9351,6 +9351,350 @@
       </c>
       <c r="AB103">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7803366</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45422.83333333334</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J104">
+        <v>1.95</v>
+      </c>
+      <c r="K104">
+        <v>3.4</v>
+      </c>
+      <c r="L104">
+        <v>3.25</v>
+      </c>
+      <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
+        <v>3.5</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
+        <v>-0.5</v>
+      </c>
+      <c r="Q104">
+        <v>1.825</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>2.5</v>
+      </c>
+      <c r="T104">
+        <v>1.9</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>0.8</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>0.825</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7802941</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45423.625</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105">
+        <v>2.7</v>
+      </c>
+      <c r="K105">
+        <v>3.5</v>
+      </c>
+      <c r="L105">
+        <v>2.2</v>
+      </c>
+      <c r="M105">
+        <v>2.9</v>
+      </c>
+      <c r="N105">
+        <v>3.5</v>
+      </c>
+      <c r="O105">
+        <v>2.1</v>
+      </c>
+      <c r="P105">
+        <v>0.25</v>
+      </c>
+      <c r="Q105">
+        <v>1.95</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>2.25</v>
+      </c>
+      <c r="T105">
+        <v>1.85</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>-1</v>
+      </c>
+      <c r="W105">
+        <v>2.5</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>0.475</v>
+      </c>
+      <c r="Z105">
+        <v>-0.5</v>
+      </c>
+      <c r="AA105">
+        <v>-0.5</v>
+      </c>
+      <c r="AB105">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7802878</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45423.75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106">
+        <v>2.25</v>
+      </c>
+      <c r="K106">
+        <v>3.25</v>
+      </c>
+      <c r="L106">
+        <v>2.75</v>
+      </c>
+      <c r="M106">
+        <v>2.4</v>
+      </c>
+      <c r="N106">
+        <v>3.2</v>
+      </c>
+      <c r="O106">
+        <v>2.55</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1.8</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>2.5</v>
+      </c>
+      <c r="T106">
+        <v>1.95</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>-1</v>
+      </c>
+      <c r="W106">
+        <v>2.2</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7802942</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45424.83333333334</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107">
+        <v>3.25</v>
+      </c>
+      <c r="K107">
+        <v>3.25</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>2.8</v>
+      </c>
+      <c r="N107">
+        <v>3.1</v>
+      </c>
+      <c r="O107">
+        <v>2.25</v>
+      </c>
+      <c r="P107">
+        <v>0.25</v>
+      </c>
+      <c r="Q107">
+        <v>1.775</v>
+      </c>
+      <c r="R107">
+        <v>2.025</v>
+      </c>
+      <c r="S107">
+        <v>2.25</v>
+      </c>
+      <c r="T107">
+        <v>1.8</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="V107">
+        <v>-1</v>
+      </c>
+      <c r="W107">
+        <v>2.1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>0.3875</v>
+      </c>
+      <c r="Z107">
+        <v>-0.5</v>
+      </c>
+      <c r="AA107">
+        <v>-0.5</v>
+      </c>
+      <c r="AB107">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -7552,7 +7552,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7561,76 +7561,76 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7647,76 +7647,76 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802879</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +592,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -607,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -675,16 +678,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -761,16 +764,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -847,16 +850,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -933,16 +936,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1019,16 +1022,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1105,16 +1108,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1123,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1191,16 +1194,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1277,16 +1280,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1360,67 +1363,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1429,16 +1432,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1446,67 +1449,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1515,16 +1518,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1535,16 +1538,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1621,16 +1624,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,16 +1710,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1725,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1793,16 +1796,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1879,16 +1882,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1897,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1965,16 +1968,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2051,16 +2054,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2137,16 +2140,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2223,16 +2226,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2241,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2309,16 +2312,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2395,16 +2398,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2413,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2481,16 +2484,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2499,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2567,16 +2570,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2585,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2653,16 +2656,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2739,16 +2742,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2757,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2825,16 +2828,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2843,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2911,16 +2914,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -2997,16 +3000,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3015,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3083,16 +3086,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3169,16 +3172,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3187,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3255,16 +3258,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3273,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3341,16 +3344,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3359,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3427,16 +3430,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3445,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,16 +3516,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3599,16 +3602,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3685,16 +3688,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3771,16 +3774,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3857,16 +3860,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
         <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3943,16 +3946,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3961,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4029,16 +4032,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4047,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4115,16 +4118,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4133,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4201,16 +4204,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4219,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4287,16 +4290,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4305,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4373,16 +4376,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4459,16 +4462,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4477,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4545,16 +4548,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4563,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4631,16 +4634,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4649,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4717,16 +4720,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
         <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4735,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4803,16 +4806,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4821,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4889,16 +4892,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4907,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4975,16 +4978,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4993,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5061,16 +5064,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5079,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5147,16 +5150,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5165,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5233,16 +5236,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5251,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5319,16 +5322,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5337,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,16 +5408,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5423,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5491,16 +5494,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
         <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5509,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5577,16 +5580,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5595,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5663,16 +5666,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
         <v>33</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5681,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,16 +5752,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
         <v>32</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5767,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5835,16 +5838,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5853,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5921,16 +5924,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5939,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6007,16 +6010,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6025,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6093,16 +6096,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6111,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6179,16 +6182,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6197,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6265,16 +6268,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>29</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6351,16 +6354,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6369,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6437,16 +6440,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6455,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6523,16 +6526,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6609,16 +6612,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6627,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,16 +6698,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6781,16 +6784,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6867,16 +6870,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6953,16 +6956,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6971,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7039,16 +7042,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7057,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,16 +7128,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7143,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7211,16 +7214,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7229,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7297,16 +7300,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,16 +7386,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7469,16 +7472,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7487,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7555,16 +7558,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7573,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7641,16 +7644,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7659,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7727,16 +7730,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7745,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,16 +7816,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7831,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7899,16 +7902,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7917,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7985,16 +7988,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,16 +8074,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8089,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8157,16 +8160,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,16 +8246,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8261,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8329,16 +8332,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8347,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8415,16 +8418,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8433,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8501,16 +8504,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8519,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8587,16 +8590,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8673,16 +8676,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8691,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8759,16 +8762,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8777,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8845,16 +8848,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8863,7 +8866,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8931,16 +8934,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8949,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9017,16 +9020,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9035,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9103,16 +9106,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
         <v>29</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9121,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9189,16 +9192,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9207,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J102">
         <v>1.909</v>
@@ -9275,16 +9278,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9293,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9361,16 +9364,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
         <v>32</v>
-      </c>
-      <c r="F104" t="s">
-        <v>31</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9379,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J104">
         <v>1.95</v>
@@ -9447,16 +9450,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9465,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9533,17 +9536,17 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" t="s">
         <v>35</v>
       </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9619,16 +9622,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9637,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>3.25</v>
@@ -9695,6 +9698,71 @@
       </c>
       <c r="AB107">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45430.70833333334</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108">
+        <v>1.6</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>4.333</v>
+      </c>
+      <c r="M108">
+        <v>1.571</v>
+      </c>
+      <c r="N108">
+        <v>3.9</v>
+      </c>
+      <c r="O108">
+        <v>4.5</v>
+      </c>
+      <c r="P108">
+        <v>-1</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>2.5</v>
+      </c>
+      <c r="T108">
+        <v>1.85</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802879</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -495,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,16 +589,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -610,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -678,16 +675,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -696,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -764,16 +761,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -850,16 +847,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -936,16 +933,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -954,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1022,16 +1019,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1108,16 +1105,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1126,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1194,16 +1191,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1212,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1280,16 +1277,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1363,67 +1360,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1432,16 +1429,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1449,67 +1446,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1518,16 +1515,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1538,16 +1535,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1624,16 +1621,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1710,17 +1707,17 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1796,16 +1793,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1882,16 +1879,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1968,16 +1965,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2054,16 +2051,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2140,16 +2137,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2226,16 +2223,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2244,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2312,16 +2309,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2330,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2398,16 +2395,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2416,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2484,16 +2481,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2502,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2570,16 +2567,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2588,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2656,17 +2653,17 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2742,16 +2739,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2828,16 +2825,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2846,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2914,17 +2911,17 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
-        <v>31</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -2932,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3000,16 +2997,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3086,16 +3083,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3172,16 +3169,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3190,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3258,16 +3255,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3344,25 +3341,25 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
         <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>37</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3430,16 +3427,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
         <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3448,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3516,16 +3513,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3534,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3602,16 +3599,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3620,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3688,16 +3685,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3774,16 +3771,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3860,16 +3857,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3878,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3946,17 +3943,17 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="s">
-        <v>34</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3964,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4032,16 +4029,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4050,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4118,16 +4115,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4136,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4204,16 +4201,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4290,16 +4287,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4308,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4376,16 +4373,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4394,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4462,16 +4459,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4480,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4548,16 +4545,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4566,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4634,16 +4631,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4720,16 +4717,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4738,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4806,16 +4803,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4824,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4892,16 +4889,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4910,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4978,16 +4975,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4996,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5064,16 +5061,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5150,16 +5147,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5236,16 +5233,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5322,16 +5319,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5340,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5408,16 +5405,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5426,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5494,16 +5491,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5512,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5580,16 +5577,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5598,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5666,16 +5663,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5684,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5752,16 +5749,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5770,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5838,16 +5835,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5856,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5924,16 +5921,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6010,16 +6007,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6028,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6096,16 +6093,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6114,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6182,16 +6179,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6268,16 +6265,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6286,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6354,16 +6351,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6372,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6440,16 +6437,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6458,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6526,16 +6523,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6544,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6612,16 +6609,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6630,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6698,16 +6695,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6716,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6784,16 +6781,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6802,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6870,16 +6867,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6888,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6956,16 +6953,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7042,16 +7039,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7060,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7128,16 +7125,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7146,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7214,16 +7211,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7232,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7300,16 +7297,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7318,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7386,16 +7383,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7404,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7472,16 +7469,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7490,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7555,85 +7552,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
         <v>30</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>36</v>
       </c>
-      <c r="G83">
-        <v>3</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>39</v>
-      </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.825</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.825</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7641,85 +7638,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" t="s">
         <v>35</v>
       </c>
-      <c r="F84" t="s">
-        <v>31</v>
-      </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7730,16 +7727,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7748,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7816,16 +7813,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7834,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7902,16 +7899,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7920,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7988,16 +7985,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8006,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8074,16 +8071,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8092,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8160,16 +8157,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8178,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8246,16 +8243,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8264,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8332,16 +8329,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8350,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8418,16 +8415,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8436,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8504,16 +8501,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8522,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8590,16 +8587,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8608,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8676,16 +8673,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8762,16 +8759,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8780,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8848,16 +8845,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8866,7 +8863,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8934,16 +8931,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8952,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9020,16 +9017,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9038,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9106,16 +9103,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9124,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9192,16 +9189,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9210,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J102">
         <v>1.909</v>
@@ -9278,17 +9275,17 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
         <v>31</v>
       </c>
-      <c r="F103" t="s">
-        <v>32</v>
-      </c>
       <c r="G103">
         <v>2</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9364,16 +9361,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9382,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J104">
         <v>1.95</v>
@@ -9450,16 +9447,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9468,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9536,16 +9533,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9554,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9622,16 +9619,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9640,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J107">
         <v>3.25</v>
@@ -9704,65 +9701,344 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>27</v>
+      <c r="B108">
+        <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
-        <v>45430.70833333334</v>
+        <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
         <v>35</v>
       </c>
       <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
+        <v>3.25</v>
+      </c>
+      <c r="O108">
+        <v>2.8</v>
+      </c>
+      <c r="P108">
+        <v>-0.25</v>
+      </c>
+      <c r="Q108">
+        <v>2.025</v>
+      </c>
+      <c r="R108">
+        <v>1.775</v>
+      </c>
+      <c r="S108">
+        <v>2.25</v>
+      </c>
+      <c r="T108">
+        <v>1.975</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
+        <v>-1</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>1.8</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7802879</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45430.70833333334</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>36</v>
+      </c>
+      <c r="J109">
+        <v>1.6</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.333</v>
+      </c>
+      <c r="M109">
+        <v>1.55</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109">
+        <v>4.5</v>
+      </c>
+      <c r="P109">
+        <v>-1</v>
+      </c>
+      <c r="Q109">
+        <v>1.975</v>
+      </c>
+      <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
+        <v>2.75</v>
+      </c>
+      <c r="T109">
+        <v>1.975</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
+        <v>-1</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>3.5</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>0.825</v>
+      </c>
+      <c r="AA109">
+        <v>0.4875</v>
+      </c>
+      <c r="AB109">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7803367</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45430.83333333334</v>
+      </c>
+      <c r="E110" t="s">
         <v>29</v>
       </c>
-      <c r="J108">
-        <v>1.6</v>
-      </c>
-      <c r="K108">
-        <v>4</v>
-      </c>
-      <c r="L108">
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>3.4</v>
+      </c>
+      <c r="L110">
+        <v>3.2</v>
+      </c>
+      <c r="M110">
+        <v>1.65</v>
+      </c>
+      <c r="N110">
+        <v>3.7</v>
+      </c>
+      <c r="O110">
         <v>4.333</v>
       </c>
-      <c r="M108">
-        <v>1.571</v>
-      </c>
-      <c r="N108">
-        <v>3.9</v>
-      </c>
-      <c r="O108">
-        <v>4.5</v>
-      </c>
-      <c r="P108">
-        <v>-1</v>
-      </c>
-      <c r="Q108">
-        <v>2</v>
-      </c>
-      <c r="R108">
-        <v>1.8</v>
-      </c>
-      <c r="S108">
+      <c r="P110">
+        <v>-0.75</v>
+      </c>
+      <c r="Q110">
+        <v>1.85</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
         <v>2.5</v>
       </c>
-      <c r="T108">
+      <c r="T110">
+        <v>1.825</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
+        <v>-1</v>
+      </c>
+      <c r="W110">
+        <v>2.7</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>0.95</v>
+      </c>
+      <c r="AA110">
+        <v>0.825</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7803368</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45432.66666666666</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111">
+        <v>2.1</v>
+      </c>
+      <c r="K111">
+        <v>3.2</v>
+      </c>
+      <c r="L111">
+        <v>3.2</v>
+      </c>
+      <c r="M111">
+        <v>1.7</v>
+      </c>
+      <c r="N111">
+        <v>3.6</v>
+      </c>
+      <c r="O111">
+        <v>4.1</v>
+      </c>
+      <c r="P111">
+        <v>-0.75</v>
+      </c>
+      <c r="Q111">
+        <v>1.95</v>
+      </c>
+      <c r="R111">
         <v>1.85</v>
       </c>
-      <c r="U108">
+      <c r="S111">
+        <v>2.5</v>
+      </c>
+      <c r="T111">
         <v>1.95</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>-1</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>3.1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA111">
+        <v>0.95</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802944</t>
+  </si>
+  <si>
+    <t>7802880</t>
+  </si>
+  <si>
+    <t>7802945</t>
+  </si>
+  <si>
+    <t>7803369</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -492,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +601,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -607,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -675,16 +687,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -761,16 +773,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -779,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -847,16 +859,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -865,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -933,16 +945,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -951,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1019,16 +1031,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1105,16 +1117,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1123,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1191,16 +1203,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1209,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1277,16 +1289,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1360,67 +1372,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1429,16 +1441,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1446,67 +1458,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1515,16 +1527,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1535,16 +1547,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1553,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1621,16 +1633,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1639,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1707,16 +1719,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1725,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1793,16 +1805,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1879,16 +1891,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1897,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1965,16 +1977,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1983,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2051,16 +2063,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2069,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2137,16 +2149,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2155,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2223,16 +2235,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2241,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2309,16 +2321,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2327,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2395,16 +2407,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2413,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2481,16 +2493,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2499,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2567,16 +2579,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2585,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2653,16 +2665,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2671,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2739,16 +2751,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2757,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2825,16 +2837,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2843,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2911,16 +2923,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2929,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -2997,16 +3009,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3015,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3083,16 +3095,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3101,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3169,16 +3181,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3187,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3255,16 +3267,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3273,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3341,16 +3353,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3359,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3427,16 +3439,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3445,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3513,16 +3525,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3531,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3599,16 +3611,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3617,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3685,16 +3697,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3703,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3771,16 +3783,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3789,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3857,16 +3869,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3875,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3943,16 +3955,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3961,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4029,16 +4041,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4047,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4115,16 +4127,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4133,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4201,16 +4213,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4219,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4287,16 +4299,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4305,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4373,16 +4385,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4391,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4459,16 +4471,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4477,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4545,16 +4557,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4563,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4631,16 +4643,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4649,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4717,16 +4729,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4735,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4803,16 +4815,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4821,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4889,16 +4901,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4907,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4975,16 +4987,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4993,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5061,16 +5073,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>32</v>
-      </c>
-      <c r="F54" t="s">
-        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5079,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5147,16 +5159,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5165,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5233,16 +5245,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5251,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5319,16 +5331,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5337,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5405,16 +5417,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
         <v>35</v>
-      </c>
-      <c r="F58" t="s">
-        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5423,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5491,16 +5503,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5509,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5577,16 +5589,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5595,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5663,16 +5675,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5681,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5749,16 +5761,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5767,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5835,16 +5847,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5853,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5921,16 +5933,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5939,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6007,16 +6019,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6025,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6093,16 +6105,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
         <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6111,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6179,16 +6191,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6197,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6265,16 +6277,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6283,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6351,16 +6363,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6369,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6437,16 +6449,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6455,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6523,16 +6535,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6541,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6609,16 +6621,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6627,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6695,16 +6707,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6713,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6781,16 +6793,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6799,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6867,16 +6879,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6885,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6953,16 +6965,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6971,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7039,16 +7051,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7057,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7125,16 +7137,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7143,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7211,16 +7223,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7229,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7297,16 +7309,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7315,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7383,16 +7395,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7401,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7469,16 +7481,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7487,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7552,85 +7564,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.825</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7638,85 +7650,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7727,16 +7739,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7745,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7813,16 +7825,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7831,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7899,16 +7911,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7917,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7985,16 +7997,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8003,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8071,16 +8083,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8089,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8157,16 +8169,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8175,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8243,16 +8255,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8261,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8329,16 +8341,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8347,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8415,16 +8427,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8433,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8501,17 +8513,17 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
         <v>35</v>
       </c>
-      <c r="F94" t="s">
-        <v>31</v>
-      </c>
       <c r="G94">
         <v>2</v>
       </c>
@@ -8519,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8587,16 +8599,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8605,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8673,16 +8685,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8691,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8759,16 +8771,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
         <v>32</v>
-      </c>
-      <c r="F97" t="s">
-        <v>28</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8777,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8845,16 +8857,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8863,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8931,16 +8943,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8949,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9017,16 +9029,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9035,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9103,16 +9115,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9121,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9189,16 +9201,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9207,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.909</v>
@@ -9275,16 +9287,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9293,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9361,16 +9373,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9379,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>1.95</v>
@@ -9447,16 +9459,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s">
         <v>33</v>
-      </c>
-      <c r="F105" t="s">
-        <v>29</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9465,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9533,16 +9545,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9551,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9619,16 +9631,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9637,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>3.25</v>
@@ -9705,16 +9717,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9723,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -9791,16 +9803,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9809,7 +9821,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.6</v>
@@ -9877,16 +9889,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9895,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -9963,16 +9975,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9981,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10039,6 +10051,266 @@
       </c>
       <c r="AB111">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45436.83333333334</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J112">
+        <v>1.909</v>
+      </c>
+      <c r="K112">
+        <v>3.4</v>
+      </c>
+      <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>2.15</v>
+      </c>
+      <c r="N112">
+        <v>3.3</v>
+      </c>
+      <c r="O112">
+        <v>2.9</v>
+      </c>
+      <c r="P112">
+        <v>-0.25</v>
+      </c>
+      <c r="Q112">
+        <v>1.925</v>
+      </c>
+      <c r="R112">
+        <v>1.875</v>
+      </c>
+      <c r="S112">
+        <v>2.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45437.66666666666</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="J113">
+        <v>2.375</v>
+      </c>
+      <c r="K113">
+        <v>3.2</v>
+      </c>
+      <c r="L113">
+        <v>2.625</v>
+      </c>
+      <c r="M113">
+        <v>2.45</v>
+      </c>
+      <c r="N113">
+        <v>3.2</v>
+      </c>
+      <c r="O113">
+        <v>2.55</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1.85</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>2.25</v>
+      </c>
+      <c r="T113">
+        <v>1.8</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45437.79166666666</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114">
+        <v>2.75</v>
+      </c>
+      <c r="K114">
+        <v>3.25</v>
+      </c>
+      <c r="L114">
+        <v>2.25</v>
+      </c>
+      <c r="M114">
+        <v>2.75</v>
+      </c>
+      <c r="N114">
+        <v>3.25</v>
+      </c>
+      <c r="O114">
+        <v>2.25</v>
+      </c>
+      <c r="P114">
+        <v>0.25</v>
+      </c>
+      <c r="Q114">
+        <v>1.775</v>
+      </c>
+      <c r="R114">
+        <v>2.025</v>
+      </c>
+      <c r="S114">
+        <v>2.5</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.8</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45438.75</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115">
+        <v>1.571</v>
+      </c>
+      <c r="K115">
+        <v>3.6</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>1.4</v>
+      </c>
+      <c r="N115">
+        <v>3.9</v>
+      </c>
+      <c r="O115">
+        <v>7</v>
+      </c>
+      <c r="P115">
+        <v>-1.25</v>
+      </c>
+      <c r="Q115">
+        <v>1.875</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>2.75</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802944</t>
   </si>
   <si>
     <t>7802880</t>
@@ -504,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +598,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -619,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -687,16 +684,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -705,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -773,16 +770,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -859,16 +856,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -945,16 +942,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1031,16 +1028,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1049,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1117,16 +1114,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1135,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1203,16 +1200,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1289,16 +1286,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1375,16 +1372,16 @@
         <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1393,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1461,16 +1458,16 @@
         <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1479,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1547,16 +1544,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1633,16 +1630,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1651,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1719,17 +1716,17 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -1737,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1805,16 +1802,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1891,16 +1888,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1909,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1977,16 +1974,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2063,16 +2060,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2081,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2149,16 +2146,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2167,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2235,16 +2232,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2253,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2321,16 +2318,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2407,16 +2404,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2425,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2493,16 +2490,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2579,16 +2576,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2597,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2665,17 +2662,17 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2751,16 +2748,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2769,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2837,16 +2834,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2855,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2923,17 +2920,17 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -2941,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3009,16 +3006,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3027,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3095,16 +3092,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3181,16 +3178,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3267,16 +3264,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3285,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3353,25 +3350,25 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
         <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3439,16 +3436,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
         <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3525,16 +3522,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3543,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3611,16 +3608,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
         <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3697,16 +3694,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3715,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3783,16 +3780,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3801,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3869,16 +3866,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3887,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3955,17 +3952,17 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
-        <v>37</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3973,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4041,16 +4038,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4059,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4127,16 +4124,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4145,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4213,16 +4210,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4231,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4299,16 +4296,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4317,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4385,16 +4382,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4403,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4471,16 +4468,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4489,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4557,16 +4554,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4575,7 +4572,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4643,16 +4640,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4729,16 +4726,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4815,16 +4812,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4833,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4901,16 +4898,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4919,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4987,16 +4984,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5005,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5073,16 +5070,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5091,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5159,16 +5156,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5177,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5245,16 +5242,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5331,16 +5328,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5349,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5417,16 +5414,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5503,16 +5500,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5521,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5589,16 +5586,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5675,16 +5672,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5693,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5761,16 +5758,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5847,16 +5844,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5933,16 +5930,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5951,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6019,16 +6016,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6037,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6105,16 +6102,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6123,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6191,16 +6188,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6277,16 +6274,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6295,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6363,16 +6360,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6381,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6449,16 +6446,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6535,16 +6532,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6553,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6621,16 +6618,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6639,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6707,16 +6704,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6725,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6793,16 +6790,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6811,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6879,16 +6876,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
         <v>38</v>
-      </c>
-      <c r="F75" t="s">
-        <v>39</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6897,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6965,16 +6962,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
         <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>35</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6983,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7051,16 +7048,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7069,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7137,16 +7134,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
         <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>38</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7155,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7223,16 +7220,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7241,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7309,16 +7306,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7327,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7395,16 +7392,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7413,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7481,16 +7478,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7567,16 +7564,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7585,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7653,16 +7650,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7739,16 +7736,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7757,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7825,16 +7822,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7843,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7911,16 +7908,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7929,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7997,16 +7994,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8015,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8083,16 +8080,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8169,16 +8166,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8187,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8255,16 +8252,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8273,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8341,16 +8338,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8359,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8427,16 +8424,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8513,16 +8510,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8531,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8599,16 +8596,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8617,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8685,16 +8682,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8703,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8771,16 +8768,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8789,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8857,16 +8854,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8872,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8943,16 +8940,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8961,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9029,16 +9026,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9047,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9115,16 +9112,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9133,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9201,16 +9198,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9219,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>1.909</v>
@@ -9287,17 +9284,17 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
         <v>34</v>
       </c>
-      <c r="F103" t="s">
-        <v>35</v>
-      </c>
       <c r="G103">
         <v>2</v>
       </c>
@@ -9305,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9373,16 +9370,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9391,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>1.95</v>
@@ -9459,16 +9456,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9545,16 +9542,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9631,16 +9628,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>3.25</v>
@@ -9717,16 +9714,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -9803,16 +9800,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J109">
         <v>1.6</v>
@@ -9889,16 +9886,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9907,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -9975,16 +9972,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9993,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10061,52 +10058,52 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
-        <v>45436.83333333334</v>
+        <v>45437.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
       </c>
       <c r="J112">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K112">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="M112">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -10126,37 +10123,37 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45437.79166666666</v>
+      </c>
+      <c r="E113" t="s">
         <v>31</v>
-      </c>
-      <c r="D113" s="2">
-        <v>45437.66666666666</v>
-      </c>
-      <c r="E113" t="s">
-        <v>34</v>
       </c>
       <c r="F113" t="s">
         <v>38</v>
       </c>
       <c r="J113">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="K113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L113">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O113">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q113">
         <v>1.85</v>
@@ -10165,13 +10162,13 @@
         <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -10191,46 +10188,46 @@
         <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
-        <v>45437.79166666666</v>
+        <v>45438.75</v>
       </c>
       <c r="E114" t="s">
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J114">
+        <v>1.571</v>
+      </c>
+      <c r="K114">
+        <v>3.6</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>1.42</v>
+      </c>
+      <c r="N114">
+        <v>3.8</v>
+      </c>
+      <c r="O114">
+        <v>6.5</v>
+      </c>
+      <c r="P114">
+        <v>-1.25</v>
+      </c>
+      <c r="Q114">
+        <v>1.925</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
         <v>2.75</v>
-      </c>
-      <c r="K114">
-        <v>3.25</v>
-      </c>
-      <c r="L114">
-        <v>2.25</v>
-      </c>
-      <c r="M114">
-        <v>2.75</v>
-      </c>
-      <c r="N114">
-        <v>3.25</v>
-      </c>
-      <c r="O114">
-        <v>2.25</v>
-      </c>
-      <c r="P114">
-        <v>0.25</v>
-      </c>
-      <c r="Q114">
-        <v>1.775</v>
-      </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>2.5</v>
       </c>
       <c r="T114">
         <v>2</v>
@@ -10245,71 +10242,6 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D115" s="2">
-        <v>45438.75</v>
-      </c>
-      <c r="E115" t="s">
-        <v>33</v>
-      </c>
-      <c r="F115" t="s">
-        <v>35</v>
-      </c>
-      <c r="J115">
-        <v>1.571</v>
-      </c>
-      <c r="K115">
-        <v>3.6</v>
-      </c>
-      <c r="L115">
-        <v>5</v>
-      </c>
-      <c r="M115">
-        <v>1.4</v>
-      </c>
-      <c r="N115">
-        <v>3.9</v>
-      </c>
-      <c r="O115">
-        <v>7</v>
-      </c>
-      <c r="P115">
-        <v>-1.25</v>
-      </c>
-      <c r="Q115">
-        <v>1.875</v>
-      </c>
-      <c r="R115">
-        <v>1.925</v>
-      </c>
-      <c r="S115">
-        <v>2.75</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.8</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802880</t>
-  </si>
-  <si>
-    <t>7802945</t>
-  </si>
-  <si>
-    <t>7803369</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -501,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +589,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -616,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -684,16 +675,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -702,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -770,17 +761,17 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -788,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -856,16 +847,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>3.25</v>
@@ -942,16 +933,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -960,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.45</v>
@@ -1028,16 +1019,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1114,16 +1105,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1132,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1200,16 +1191,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1218,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1286,17 +1277,17 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
       <c r="G10">
         <v>2</v>
       </c>
@@ -1304,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1372,16 +1363,16 @@
         <v>6240280</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1390,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1458,16 +1449,16 @@
         <v>6227815</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1476,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1544,16 +1535,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1.615</v>
@@ -1630,16 +1621,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1648,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>5.2</v>
@@ -1716,16 +1707,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1734,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>2.5</v>
@@ -1802,16 +1793,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1888,16 +1879,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1906,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1974,16 +1965,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1992,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2060,16 +2051,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2078,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.909</v>
@@ -2146,16 +2137,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2164,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2232,16 +2223,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2250,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2318,16 +2309,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2336,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>2.4</v>
@@ -2404,16 +2395,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2422,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J23">
         <v>3.25</v>
@@ -2490,16 +2481,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2508,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>4.5</v>
@@ -2576,16 +2567,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2594,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>1.727</v>
@@ -2662,16 +2653,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2680,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2.25</v>
@@ -2748,16 +2739,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2766,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>2.6</v>
@@ -2834,16 +2825,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2852,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>2.75</v>
@@ -2920,16 +2911,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2938,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>1.85</v>
@@ -3006,17 +2997,17 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -3024,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>3.5</v>
@@ -3092,16 +3083,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3110,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3178,16 +3169,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3196,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3264,16 +3255,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3282,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3350,16 +3341,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3368,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -3436,16 +3427,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3454,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3522,16 +3513,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3540,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3608,16 +3599,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3626,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3694,16 +3685,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3712,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1.3</v>
@@ -3780,16 +3771,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3798,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>2.9</v>
@@ -3866,16 +3857,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3884,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.6</v>
@@ -3952,25 +3943,25 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
         <v>36</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>39</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4038,16 +4029,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4056,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>2.625</v>
@@ -4124,16 +4115,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4142,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4210,17 +4201,17 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -4228,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J44">
         <v>2.9</v>
@@ -4296,16 +4287,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4314,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>2.75</v>
@@ -4382,16 +4373,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4400,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.875</v>
@@ -4468,16 +4459,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4486,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1.444</v>
@@ -4554,16 +4545,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4572,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J48">
         <v>1.727</v>
@@ -4640,16 +4631,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4658,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4726,16 +4717,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4744,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J50">
         <v>2.8</v>
@@ -4812,16 +4803,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4830,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -4898,16 +4889,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4916,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4984,16 +4975,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
         <v>32</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5002,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.571</v>
@@ -5070,16 +5061,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5088,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5156,16 +5147,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5174,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5242,25 +5233,25 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
         <v>37</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>40</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5328,16 +5319,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5346,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5414,16 +5405,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5432,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>1.7</v>
@@ -5500,16 +5491,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5518,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5586,16 +5577,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J60">
         <v>6</v>
@@ -5672,16 +5663,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5690,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5758,16 +5749,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -5844,16 +5835,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5862,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J63">
         <v>1.75</v>
@@ -5930,25 +5921,25 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
         <v>37</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>40</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6016,16 +6007,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6034,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6102,16 +6093,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6120,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J66">
         <v>2.6</v>
@@ -6188,16 +6179,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6206,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>2.5</v>
@@ -6274,16 +6265,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6292,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.285</v>
@@ -6360,16 +6351,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
         <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>37</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6378,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6446,16 +6437,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" t="s">
         <v>35</v>
-      </c>
-      <c r="F70" t="s">
-        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6464,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6532,16 +6523,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6550,7 +6541,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.625</v>
@@ -6618,16 +6609,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6636,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>1.615</v>
@@ -6704,16 +6695,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6722,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J73">
         <v>3.6</v>
@@ -6790,16 +6781,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6808,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6876,16 +6867,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6894,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -6962,16 +6953,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6980,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7048,16 +7039,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7066,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.615</v>
@@ -7134,16 +7125,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7152,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>2.625</v>
@@ -7220,16 +7211,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7238,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>1.285</v>
@@ -7306,16 +7297,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7324,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7392,16 +7383,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7410,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7478,16 +7469,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7496,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7564,16 +7555,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7582,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>2.25</v>
@@ -7650,16 +7641,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7668,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7736,16 +7727,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7754,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>1.727</v>
@@ -7822,16 +7813,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7840,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J86">
         <v>2.6</v>
@@ -7908,16 +7899,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7926,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>2.3</v>
@@ -7994,16 +7985,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8012,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8080,16 +8071,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8098,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>2.875</v>
@@ -8166,16 +8157,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8184,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8252,16 +8243,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8270,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J91">
         <v>1.833</v>
@@ -8338,16 +8329,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
         <v>31</v>
-      </c>
-      <c r="F92" t="s">
-        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8356,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8424,16 +8415,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>3.1</v>
@@ -8510,25 +8501,25 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
         <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>41</v>
       </c>
       <c r="J94">
         <v>1.727</v>
@@ -8596,16 +8587,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8614,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J95">
         <v>3.1</v>
@@ -8682,16 +8673,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8700,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8768,16 +8759,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8786,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8854,16 +8845,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8872,7 +8863,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -8940,16 +8931,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8958,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9026,16 +9017,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9044,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -9112,16 +9103,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9130,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>1.65</v>
@@ -9198,25 +9189,25 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
         <v>38</v>
-      </c>
-      <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>41</v>
       </c>
       <c r="J102">
         <v>1.909</v>
@@ -9284,16 +9275,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9302,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9370,16 +9361,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9388,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J104">
         <v>1.95</v>
@@ -9456,16 +9447,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9474,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9542,25 +9533,25 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
         <v>37</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>40</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9628,16 +9619,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J107">
         <v>3.25</v>
@@ -9714,16 +9705,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9732,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -9800,16 +9791,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9818,7 +9809,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J109">
         <v>1.6</v>
@@ -9886,17 +9877,17 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
         <v>32</v>
       </c>
-      <c r="F110" t="s">
-        <v>35</v>
-      </c>
       <c r="G110">
         <v>2</v>
       </c>
@@ -9904,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -9972,16 +9963,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9990,7 +9981,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10054,195 +10045,344 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>27</v>
+      <c r="B112">
+        <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
-        <v>45437.66666666666</v>
+        <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
         <v>33</v>
       </c>
-      <c r="F112" t="s">
-        <v>37</v>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>38</v>
       </c>
       <c r="J112">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K112">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L112">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.025</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
+        <v>0.875</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>28</v>
+      <c r="B113">
+        <v>7802880</v>
       </c>
       <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45437.66666666666</v>
+      </c>
+      <c r="E113" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="2">
-        <v>45437.79166666666</v>
-      </c>
-      <c r="E113" t="s">
-        <v>31</v>
-      </c>
       <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
         <v>38</v>
       </c>
       <c r="J113">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L113">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O113">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="P113">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S113">
         <v>2.5</v>
       </c>
       <c r="T113">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>0.8</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>29</v>
+      <c r="B114">
+        <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45438.75</v>
+        <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>38</v>
       </c>
       <c r="J114">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="K114">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M114">
-        <v>1.42</v>
+        <v>2.55</v>
       </c>
       <c r="N114">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="P114">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
         <v>2.75</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.475</v>
+      </c>
+      <c r="AB114">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7803369</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45438.75</v>
+      </c>
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115">
+        <v>1.571</v>
+      </c>
+      <c r="K115">
+        <v>3.6</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>1.42</v>
+      </c>
+      <c r="N115">
+        <v>4.2</v>
+      </c>
+      <c r="O115">
+        <v>6.5</v>
+      </c>
+      <c r="P115">
+        <v>-1.25</v>
+      </c>
+      <c r="Q115">
+        <v>1.825</v>
+      </c>
+      <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>3</v>
+      </c>
+      <c r="T115">
+        <v>1.975</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>-1</v>
+      </c>
+      <c r="W115">
+        <v>3.2</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1426,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1435,64 +1435,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>40</v>
       </c>
       <c r="L11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1527,64 +1527,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1593,16 +1593,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:30">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802881</t>
+  </si>
+  <si>
+    <t>7802946</t>
+  </si>
+  <si>
+    <t>7802947</t>
+  </si>
+  <si>
+    <t>7803370</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD115"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +613,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -625,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -693,16 +705,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -785,16 +797,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -877,16 +889,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -901,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -969,16 +981,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -993,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1061,16 +1073,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1085,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1153,16 +1165,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1245,16 +1257,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1337,16 +1349,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1429,16 +1441,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1453,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1521,16 +1533,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1613,16 +1625,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1637,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1705,16 +1717,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1729,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1797,16 +1809,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1821,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1889,17 +1901,17 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
       <c r="G16">
         <v>1</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1981,16 +1993,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2005,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2073,16 +2085,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2165,16 +2177,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2189,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2257,16 +2269,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2349,16 +2361,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2373,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2441,16 +2453,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2465,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2533,16 +2545,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2557,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2625,16 +2637,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2649,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2717,16 +2729,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2741,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2809,16 +2821,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2833,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2901,16 +2913,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2925,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -2993,16 +3005,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3017,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3085,16 +3097,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3109,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3177,16 +3189,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3201,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3269,16 +3281,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3293,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3361,16 +3373,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3385,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3453,16 +3465,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3477,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3545,16 +3557,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3569,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3637,16 +3649,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3661,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3729,16 +3741,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3753,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3821,16 +3833,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3845,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3913,16 +3925,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3937,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4005,16 +4017,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4029,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4097,16 +4109,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4121,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4189,16 +4201,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4213,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4281,16 +4293,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4373,16 +4385,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4397,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4465,16 +4477,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4489,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4557,16 +4569,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4581,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4649,16 +4661,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4673,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4741,16 +4753,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4765,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4833,16 +4845,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4857,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4925,16 +4937,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4949,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5017,16 +5029,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5041,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5109,16 +5121,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5133,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5201,16 +5213,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5225,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5293,16 +5305,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5317,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5385,17 +5397,17 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
       </c>
-      <c r="F54" t="s">
-        <v>30</v>
-      </c>
       <c r="G54">
         <v>2</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5477,16 +5489,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5501,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5569,16 +5581,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5593,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5661,16 +5673,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5685,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5753,17 +5765,17 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
       </c>
-      <c r="F58" t="s">
-        <v>33</v>
-      </c>
       <c r="G58">
         <v>2</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5845,16 +5857,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5869,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5937,16 +5949,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5961,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6029,16 +6041,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6053,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6121,16 +6133,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6145,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6213,16 +6225,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6237,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6305,16 +6317,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6329,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6397,16 +6409,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6421,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6489,17 +6501,17 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
         <v>35</v>
       </c>
-      <c r="F66" t="s">
-        <v>31</v>
-      </c>
       <c r="G66">
         <v>1</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6581,16 +6593,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6605,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6673,16 +6685,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6697,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6765,16 +6777,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6789,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6857,16 +6869,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6881,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6949,16 +6961,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6973,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7041,16 +7053,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7065,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7133,16 +7145,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7157,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7225,16 +7237,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7249,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7317,16 +7329,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7341,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7409,16 +7421,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7433,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7501,16 +7513,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7525,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7593,16 +7605,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7617,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7685,16 +7697,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7709,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7777,16 +7789,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7801,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7869,16 +7881,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7893,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7961,16 +7973,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7985,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8053,16 +8065,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8077,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8145,17 +8157,17 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s">
         <v>36</v>
       </c>
-      <c r="F84" t="s">
-        <v>32</v>
-      </c>
       <c r="G84">
         <v>0</v>
       </c>
@@ -8169,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8237,16 +8249,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8261,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8329,16 +8341,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8353,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8421,16 +8433,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8445,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8513,16 +8525,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8537,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8605,16 +8617,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8629,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8697,16 +8709,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8721,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8789,16 +8801,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8813,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8881,16 +8893,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8905,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8973,16 +8985,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8997,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9065,17 +9077,17 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s">
         <v>37</v>
       </c>
-      <c r="F94" t="s">
-        <v>33</v>
-      </c>
       <c r="G94">
         <v>2</v>
       </c>
@@ -9089,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9157,16 +9169,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9181,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9249,16 +9261,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9273,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9341,16 +9353,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
         <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>30</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9365,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9433,16 +9445,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9457,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9525,16 +9537,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9549,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9617,16 +9629,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9641,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9709,16 +9721,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9733,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9801,16 +9813,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9825,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9893,16 +9905,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9917,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9985,16 +9997,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10009,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10077,17 +10089,17 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s">
         <v>35</v>
       </c>
-      <c r="F105" t="s">
-        <v>31</v>
-      </c>
       <c r="G105">
         <v>1</v>
       </c>
@@ -10101,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10169,16 +10181,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10193,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10261,16 +10273,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10285,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10353,16 +10365,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10377,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10445,16 +10457,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10469,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10537,16 +10549,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10561,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10629,16 +10641,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10653,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10721,16 +10733,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10745,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10813,16 +10825,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10837,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10905,16 +10917,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10923,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -10991,16 +11003,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11009,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11067,6 +11079,266 @@
       </c>
       <c r="AD115">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45444.70833333334</v>
+      </c>
+      <c r="E116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116">
+        <v>1.8</v>
+      </c>
+      <c r="M116">
+        <v>3.25</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>1.85</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
+        <v>3.8</v>
+      </c>
+      <c r="R116">
+        <v>-0.5</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>1.9</v>
+      </c>
+      <c r="U116">
+        <v>2.5</v>
+      </c>
+      <c r="V116">
+        <v>1.875</v>
+      </c>
+      <c r="W116">
+        <v>1.925</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45444.83333333334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
+      </c>
+      <c r="L117">
+        <v>2.5</v>
+      </c>
+      <c r="M117">
+        <v>3.2</v>
+      </c>
+      <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>2.7</v>
+      </c>
+      <c r="P117">
+        <v>3.2</v>
+      </c>
+      <c r="Q117">
+        <v>2.35</v>
+      </c>
+      <c r="R117">
+        <v>0.25</v>
+      </c>
+      <c r="S117">
+        <v>1.725</v>
+      </c>
+      <c r="T117">
+        <v>2.075</v>
+      </c>
+      <c r="U117">
+        <v>2.5</v>
+      </c>
+      <c r="V117">
+        <v>2.025</v>
+      </c>
+      <c r="W117">
+        <v>1.775</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45445.625</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="L118">
+        <v>1.615</v>
+      </c>
+      <c r="M118">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>1.666</v>
+      </c>
+      <c r="P118">
+        <v>3.3</v>
+      </c>
+      <c r="Q118">
+        <v>4.5</v>
+      </c>
+      <c r="R118">
+        <v>-0.75</v>
+      </c>
+      <c r="S118">
+        <v>1.9</v>
+      </c>
+      <c r="T118">
+        <v>1.9</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>2.025</v>
+      </c>
+      <c r="W118">
+        <v>1.775</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45445.75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119">
+        <v>2.6</v>
+      </c>
+      <c r="M119">
+        <v>3.2</v>
+      </c>
+      <c r="N119">
+        <v>2.4</v>
+      </c>
+      <c r="O119">
+        <v>2.6</v>
+      </c>
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>2.45</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>1.825</v>
+      </c>
+      <c r="U119">
+        <v>2.5</v>
+      </c>
+      <c r="V119">
+        <v>1.9</v>
+      </c>
+      <c r="W119">
+        <v>1.9</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1447,64 +1447,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1539,64 +1539,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
       </c>
       <c r="L12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1605,16 +1605,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1447,64 +1447,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1539,64 +1539,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
       </c>
       <c r="L12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1605,16 +1605,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -8062,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
@@ -8071,82 +8071,82 @@
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O83">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q83">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
         <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>1.975</v>
       </c>
       <c r="U83">
         <v>2.5</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.825</v>
       </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8154,7 +8154,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C84" t="s">
         <v>33</v>
@@ -8163,82 +8163,82 @@
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O84">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>1.825</v>
       </c>
       <c r="U84">
         <v>2.5</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.825</v>
       </c>
-      <c r="AC84">
-        <v>-1</v>
-      </c>
       <c r="AD84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -11110,31 +11110,31 @@
         <v>4</v>
       </c>
       <c r="O116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R116">
         <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U116">
         <v>2.5</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -11175,22 +11175,22 @@
         <v>2.5</v>
       </c>
       <c r="O117">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R117">
         <v>0.25</v>
       </c>
       <c r="S117">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="U117">
         <v>2.5</v>
@@ -11240,10 +11240,10 @@
         <v>5</v>
       </c>
       <c r="O118">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="P118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -11252,19 +11252,19 @@
         <v>-0.75</v>
       </c>
       <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
         <v>1.9</v>
       </c>
-      <c r="T118">
+      <c r="W118">
         <v>1.9</v>
-      </c>
-      <c r="U118">
-        <v>2.5</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
-      <c r="W118">
-        <v>1.775</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -11305,31 +11305,31 @@
         <v>2.4</v>
       </c>
       <c r="O119">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P119">
         <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R119">
         <v>0</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U119">
         <v>2.5</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X119">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1447,64 +1447,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1539,64 +1539,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
       </c>
       <c r="L12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1605,16 +1605,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -11240,10 +11240,10 @@
         <v>5</v>
       </c>
       <c r="O118">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -11252,19 +11252,19 @@
         <v>-0.75</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X118">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1447,64 +1447,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R11">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1513,16 +1513,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1539,64 +1539,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
       </c>
       <c r="L12">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X12">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1605,16 +1605,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -11110,16 +11110,16 @@
         <v>4</v>
       </c>
       <c r="O116">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R116">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S116">
         <v>1.85</v>
@@ -11128,7 +11128,7 @@
         <v>1.95</v>
       </c>
       <c r="U116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V116">
         <v>1.85</v>
@@ -11175,31 +11175,31 @@
         <v>2.5</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q117">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X117">
         <v>0</v>
@@ -11246,25 +11246,25 @@
         <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="R118">
         <v>-0.75</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U118">
         <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -101,18 +101,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802881</t>
-  </si>
-  <si>
-    <t>7802946</t>
-  </si>
-  <si>
-    <t>7802947</t>
-  </si>
-  <si>
-    <t>7803370</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -510,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD119"/>
+  <dimension ref="A1:AD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +601,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -637,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -705,16 +693,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -729,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -797,16 +785,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -821,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -889,16 +877,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -981,16 +969,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1005,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1073,16 +1061,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1097,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1165,16 +1153,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1189,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1257,16 +1245,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1281,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1349,31 +1337,31 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>40</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1441,16 +1429,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1465,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1533,16 +1521,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1557,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1625,16 +1613,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1649,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1717,31 +1705,31 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>40</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1809,31 +1797,31 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>39</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1901,16 +1889,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1925,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1993,16 +1981,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2017,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2085,16 +2073,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2109,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2177,16 +2165,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2201,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2269,31 +2257,31 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>40</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2361,16 +2349,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2385,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2453,16 +2441,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2477,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2545,31 +2533,31 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>38</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>42</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2637,16 +2625,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2661,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2729,16 +2717,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2753,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2821,16 +2809,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2845,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2913,16 +2901,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2937,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -3005,16 +2993,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3029,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3097,16 +3085,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3121,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3189,16 +3177,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3213,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3281,17 +3269,17 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
       <c r="G31">
         <v>1</v>
       </c>
@@ -3305,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3373,16 +3361,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3397,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3465,16 +3453,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3489,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3557,16 +3545,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3581,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3649,16 +3637,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3673,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3741,16 +3729,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3765,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3833,31 +3821,31 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>42</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3925,31 +3913,31 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>44</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4017,16 +4005,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
         <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>41</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4041,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4109,16 +4097,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4133,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4201,31 +4189,31 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
         <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>42</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4293,16 +4281,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4317,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4385,16 +4373,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4409,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4477,16 +4465,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4501,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4569,16 +4557,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4593,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4661,16 +4649,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4685,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4753,16 +4741,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4777,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4845,16 +4833,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4869,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4937,16 +4925,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4961,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5029,16 +5017,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5053,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5121,16 +5109,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5145,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5213,31 +5201,31 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>39</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>43</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5305,16 +5293,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5329,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5397,16 +5385,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5421,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5489,16 +5477,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5513,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5581,17 +5569,17 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
         <v>36</v>
       </c>
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
       <c r="G56">
         <v>0</v>
       </c>
@@ -5605,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5673,16 +5661,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5697,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5765,16 +5753,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5789,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5857,16 +5845,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5881,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5949,16 +5937,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5973,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6041,31 +6029,31 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
         <v>38</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>42</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6133,16 +6121,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6157,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6225,31 +6213,31 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
         <v>39</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>43</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6317,16 +6305,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6341,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6409,16 +6397,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6433,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6501,16 +6489,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6525,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6593,16 +6581,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6617,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6685,16 +6673,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6709,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6777,16 +6765,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6801,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6869,16 +6857,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6893,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6961,16 +6949,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6985,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7053,16 +7041,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7077,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7145,31 +7133,31 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>38</v>
-      </c>
-      <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>42</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7237,16 +7225,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7261,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7329,16 +7317,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7353,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7421,16 +7409,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7445,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7513,16 +7501,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7537,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7605,31 +7593,31 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
         <v>40</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>44</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7697,16 +7685,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7721,7 +7709,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7789,16 +7777,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7813,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7881,16 +7869,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7905,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7973,31 +7961,31 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" t="s">
         <v>34</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
         <v>38</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>42</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8062,91 +8050,91 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7301364</v>
+        <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
         <v>40</v>
       </c>
-      <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>42</v>
-      </c>
       <c r="L83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M83">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O83">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R83">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
         <v>1.975</v>
-      </c>
-      <c r="T83">
-        <v>1.825</v>
       </c>
       <c r="U83">
         <v>2.5</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.825</v>
       </c>
-      <c r="AC83">
-        <v>-1</v>
-      </c>
       <c r="AD83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8154,91 +8142,91 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6227884</v>
+        <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L84">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N84">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R84">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
         <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>1.975</v>
       </c>
       <c r="U84">
         <v>2.5</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.825</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8249,16 +8237,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8273,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8341,16 +8329,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8365,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8433,16 +8421,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8457,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8525,31 +8513,31 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
         <v>40</v>
-      </c>
-      <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>44</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8617,16 +8605,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8641,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8709,31 +8697,31 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
         <v>40</v>
-      </c>
-      <c r="F90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>44</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8801,16 +8789,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8825,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8893,16 +8881,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8917,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8985,16 +8973,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9009,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9077,16 +9065,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9101,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9169,16 +9157,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9193,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9261,16 +9249,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9285,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9353,16 +9341,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9377,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9445,16 +9433,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9469,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9537,31 +9525,31 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
         <v>40</v>
-      </c>
-      <c r="F99" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>44</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9629,16 +9617,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9653,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9721,16 +9709,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9745,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9813,16 +9801,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9837,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9905,16 +9893,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9929,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9997,16 +9985,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10021,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10089,31 +10077,31 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
         <v>39</v>
-      </c>
-      <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>43</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10181,16 +10169,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10205,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10273,16 +10261,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10297,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10365,16 +10353,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10389,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10457,16 +10445,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10481,7 +10469,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10549,16 +10537,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10573,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10641,16 +10629,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10665,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10733,16 +10721,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10757,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10825,16 +10813,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
         <v>36</v>
-      </c>
-      <c r="F113" t="s">
-        <v>40</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10849,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10917,16 +10905,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10935,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -11003,16 +10991,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11021,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11079,266 +11067,6 @@
       </c>
       <c r="AD115">
         <v>0.825</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="2">
-        <v>45444.70833333334</v>
-      </c>
-      <c r="E116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116">
-        <v>1.8</v>
-      </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>4</v>
-      </c>
-      <c r="O116">
-        <v>1.65</v>
-      </c>
-      <c r="P116">
-        <v>3.6</v>
-      </c>
-      <c r="Q116">
-        <v>4.5</v>
-      </c>
-      <c r="R116">
-        <v>-0.75</v>
-      </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>1.95</v>
-      </c>
-      <c r="U116">
-        <v>2.75</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
-      <c r="W116">
-        <v>1.95</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="2">
-        <v>45444.83333333334</v>
-      </c>
-      <c r="E117" t="s">
-        <v>41</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
-      </c>
-      <c r="L117">
-        <v>2.5</v>
-      </c>
-      <c r="M117">
-        <v>3.2</v>
-      </c>
-      <c r="N117">
-        <v>2.5</v>
-      </c>
-      <c r="O117">
-        <v>2.6</v>
-      </c>
-      <c r="P117">
-        <v>3.1</v>
-      </c>
-      <c r="Q117">
-        <v>2.5</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>1.85</v>
-      </c>
-      <c r="U117">
-        <v>2.25</v>
-      </c>
-      <c r="V117">
-        <v>1.825</v>
-      </c>
-      <c r="W117">
-        <v>1.975</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" t="s">
-        <v>33</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45445.625</v>
-      </c>
-      <c r="E118" t="s">
-        <v>36</v>
-      </c>
-      <c r="F118" t="s">
-        <v>39</v>
-      </c>
-      <c r="L118">
-        <v>1.615</v>
-      </c>
-      <c r="M118">
-        <v>3.4</v>
-      </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-      <c r="O118">
-        <v>1.666</v>
-      </c>
-      <c r="P118">
-        <v>3.5</v>
-      </c>
-      <c r="Q118">
-        <v>4.333</v>
-      </c>
-      <c r="R118">
-        <v>-0.75</v>
-      </c>
-      <c r="S118">
-        <v>1.925</v>
-      </c>
-      <c r="T118">
-        <v>1.875</v>
-      </c>
-      <c r="U118">
-        <v>2.5</v>
-      </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
-      <c r="W118">
-        <v>1.8</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="2">
-        <v>45445.75</v>
-      </c>
-      <c r="E119" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="L119">
-        <v>2.6</v>
-      </c>
-      <c r="M119">
-        <v>3.2</v>
-      </c>
-      <c r="N119">
-        <v>2.4</v>
-      </c>
-      <c r="O119">
-        <v>2.5</v>
-      </c>
-      <c r="P119">
-        <v>3.1</v>
-      </c>
-      <c r="Q119">
-        <v>2.6</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>1.95</v>
-      </c>
-      <c r="U119">
-        <v>2.5</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
-      <c r="W119">
-        <v>1.95</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -1426,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6227815</v>
+        <v>6240280</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1435,64 +1435,64 @@
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>40</v>
       </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>0.444</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6240280</v>
+        <v>6227815</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1527,64 +1527,64 @@
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>0.444</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1593,16 +1593,16 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802950</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -498,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD115"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -625,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -693,16 +696,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -785,16 +788,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -877,16 +880,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -969,16 +972,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -993,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1061,16 +1064,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1153,16 +1156,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1245,16 +1248,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1337,16 +1340,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1361,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1429,16 +1432,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1453,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1521,16 +1524,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1545,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1613,16 +1616,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1705,16 +1708,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1729,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1797,16 +1800,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1889,16 +1892,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1981,16 +1984,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2005,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2073,16 +2076,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2165,16 +2168,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2189,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2257,16 +2260,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2349,16 +2352,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2373,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2441,16 +2444,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2465,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2533,16 +2536,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2557,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2625,16 +2628,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2649,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2717,16 +2720,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2741,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2809,16 +2812,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2901,16 +2904,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2925,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -2993,16 +2996,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3017,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3085,16 +3088,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3109,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3177,16 +3180,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3269,16 +3272,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3293,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3361,16 +3364,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3385,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3453,16 +3456,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3545,17 +3548,17 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
         <v>37</v>
       </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3637,16 +3640,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3661,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3729,16 +3732,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3753,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3821,16 +3824,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3845,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3913,16 +3916,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3937,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4005,16 +4008,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4029,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4097,17 +4100,17 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" t="s">
-        <v>31</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4189,16 +4192,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4213,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4281,16 +4284,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4305,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4373,16 +4376,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4397,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4465,16 +4468,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4489,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4557,16 +4560,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4581,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4649,16 +4652,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4673,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4741,16 +4744,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4765,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4833,16 +4836,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4857,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4925,16 +4928,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4949,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5017,16 +5020,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
         <v>33</v>
-      </c>
-      <c r="F50" t="s">
-        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5041,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5109,16 +5112,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5133,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5201,17 +5204,17 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
         <v>36</v>
       </c>
-      <c r="F52" t="s">
-        <v>35</v>
-      </c>
       <c r="G52">
         <v>1</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5293,16 +5296,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5317,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5385,16 +5388,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5409,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5477,16 +5480,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5501,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5569,16 +5572,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5593,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5661,16 +5664,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5685,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5753,16 +5756,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5777,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5845,17 +5848,17 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
         <v>32</v>
       </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5937,16 +5940,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5961,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6029,17 +6032,17 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
         <v>35</v>
       </c>
-      <c r="F61" t="s">
-        <v>34</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6121,16 +6124,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
         <v>34</v>
-      </c>
-      <c r="F62" t="s">
-        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6145,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6213,16 +6216,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6237,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6305,16 +6308,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6329,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6397,16 +6400,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6421,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6489,16 +6492,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6513,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6581,16 +6584,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6605,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6673,17 +6676,17 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>31</v>
       </c>
-      <c r="F68" t="s">
-        <v>30</v>
-      </c>
       <c r="G68">
         <v>2</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6765,16 +6768,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6789,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6857,16 +6860,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6881,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6949,16 +6952,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6973,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7041,16 +7044,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7065,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7133,16 +7136,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7157,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7225,16 +7228,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7249,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7317,16 +7320,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7341,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7409,16 +7412,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7433,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7501,16 +7504,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7525,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7593,16 +7596,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7617,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7685,16 +7688,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7709,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7777,16 +7780,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7801,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7869,16 +7872,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7893,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7961,16 +7964,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7985,7 +7988,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8053,16 +8056,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8077,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8145,16 +8148,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8169,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8237,16 +8240,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8261,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8329,16 +8332,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8353,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8421,16 +8424,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8445,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8513,16 +8516,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8537,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8605,16 +8608,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8629,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8697,16 +8700,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8721,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8789,16 +8792,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8813,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8881,16 +8884,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8905,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8973,16 +8976,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8997,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9065,16 +9068,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9089,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9157,17 +9160,17 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
         <v>32</v>
       </c>
-      <c r="F95" t="s">
-        <v>31</v>
-      </c>
       <c r="G95">
         <v>1</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9249,16 +9252,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9273,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9341,16 +9344,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9365,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9433,16 +9436,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9457,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9525,16 +9528,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9549,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9617,16 +9620,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9641,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9709,16 +9712,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
         <v>31</v>
-      </c>
-      <c r="F101" t="s">
-        <v>30</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9733,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9801,16 +9804,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9825,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9893,16 +9896,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9917,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9985,16 +9988,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" t="s">
         <v>34</v>
-      </c>
-      <c r="F104" t="s">
-        <v>33</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10009,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10077,16 +10080,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10101,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10169,17 +10172,17 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
         <v>37</v>
       </c>
-      <c r="F106" t="s">
-        <v>36</v>
-      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10261,16 +10264,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10285,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10353,16 +10356,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10377,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10445,16 +10448,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10469,7 +10472,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10537,16 +10540,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10561,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10629,16 +10632,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10653,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10721,16 +10724,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10745,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10813,16 +10816,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10837,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10905,16 +10908,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10923,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -10991,16 +10994,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11009,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11067,6 +11070,71 @@
       </c>
       <c r="AD115">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45457.875</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116">
+        <v>2.6</v>
+      </c>
+      <c r="M116">
+        <v>3.2</v>
+      </c>
+      <c r="N116">
+        <v>2.4</v>
+      </c>
+      <c r="O116">
+        <v>2.55</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
+        <v>2.45</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>1.95</v>
+      </c>
+      <c r="T116">
+        <v>1.85</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
+        <v>1.9</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -11101,31 +11101,31 @@
         <v>2.4</v>
       </c>
       <c r="O116">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
+        <v>1.85</v>
+      </c>
+      <c r="T116">
         <v>1.95</v>
       </c>
-      <c r="T116">
+      <c r="U116">
+        <v>2.5</v>
+      </c>
+      <c r="V116">
         <v>1.85</v>
       </c>
-      <c r="U116">
-        <v>2.25</v>
-      </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
       <c r="W116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X116">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>7802950</t>
+  </si>
+  <si>
+    <t>7803372</t>
+  </si>
+  <si>
+    <t>7802883</t>
+  </si>
+  <si>
+    <t>7802951</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -501,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +613,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -628,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -696,16 +705,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -720,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -788,16 +797,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -812,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -880,16 +889,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -904,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -972,16 +981,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -996,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1064,16 +1073,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1088,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1156,16 +1165,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1180,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1248,16 +1257,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1272,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1340,16 +1349,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1364,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1432,16 +1441,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1456,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1524,16 +1533,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1548,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1616,17 +1625,17 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1708,16 +1717,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1800,16 +1809,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1824,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1892,16 +1901,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1916,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1984,16 +1993,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2008,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2076,17 +2085,17 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2168,16 +2177,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2192,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2260,16 +2269,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2284,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2352,16 +2361,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2376,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2444,16 +2453,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2468,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2536,16 +2545,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2560,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2628,16 +2637,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2652,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2720,16 +2729,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2744,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2812,16 +2821,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2836,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2904,16 +2913,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2928,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -2996,16 +3005,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3020,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3088,16 +3097,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3112,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3180,16 +3189,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3204,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3272,16 +3281,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3296,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3364,17 +3373,17 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3456,16 +3465,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3480,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3548,16 +3557,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3572,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3640,16 +3649,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3664,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3732,17 +3741,17 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3824,16 +3833,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3848,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3916,16 +3925,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3940,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4008,16 +4017,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4032,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4100,16 +4109,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4124,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4192,16 +4201,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4216,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4284,16 +4293,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4308,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4376,16 +4385,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4400,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4468,16 +4477,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4492,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4560,16 +4569,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4584,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4652,16 +4661,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4676,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4744,16 +4753,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4768,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4836,16 +4845,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4860,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4928,16 +4937,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4952,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5020,16 +5029,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5044,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5112,16 +5121,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5136,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5204,16 +5213,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5228,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5296,16 +5305,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5320,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5388,16 +5397,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5412,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5480,16 +5489,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5504,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5572,16 +5581,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5596,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5664,16 +5673,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5688,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5756,16 +5765,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5780,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5848,16 +5857,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5872,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5940,16 +5949,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5964,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6032,16 +6041,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6056,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6124,16 +6133,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6148,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6216,16 +6225,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6240,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6308,16 +6317,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6332,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6400,16 +6409,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6424,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6492,16 +6501,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6516,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6584,16 +6593,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6608,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6676,16 +6685,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6700,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6768,16 +6777,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6792,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6860,16 +6869,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6884,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6952,16 +6961,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
         <v>36</v>
-      </c>
-      <c r="F71" t="s">
-        <v>33</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6976,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7044,17 +7053,17 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
         <v>34</v>
       </c>
-      <c r="F72" t="s">
-        <v>31</v>
-      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -7068,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7136,17 +7145,17 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
         <v>35</v>
       </c>
-      <c r="F73" t="s">
-        <v>32</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7228,16 +7237,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7252,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7320,16 +7329,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7344,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7412,16 +7421,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7436,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7504,16 +7513,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7528,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7596,16 +7605,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7620,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7688,16 +7697,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7712,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7780,16 +7789,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7804,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7872,16 +7881,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7896,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7964,16 +7973,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7988,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8056,16 +8065,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8080,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8148,16 +8157,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8172,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8240,17 +8249,17 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s">
         <v>38</v>
       </c>
-      <c r="F85" t="s">
-        <v>35</v>
-      </c>
       <c r="G85">
         <v>1</v>
       </c>
@@ -8264,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8332,16 +8341,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8356,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8424,16 +8433,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8448,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8516,16 +8525,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8540,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8608,16 +8617,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8632,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8700,16 +8709,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8724,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8792,16 +8801,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8816,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8884,16 +8893,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8908,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8976,16 +8985,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9000,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9068,16 +9077,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9092,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9160,16 +9169,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9184,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9252,16 +9261,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9276,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9344,16 +9353,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9368,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9436,16 +9445,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s">
         <v>36</v>
-      </c>
-      <c r="F98" t="s">
-        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9460,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9528,17 +9537,17 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s">
         <v>37</v>
       </c>
-      <c r="F99" t="s">
-        <v>34</v>
-      </c>
       <c r="G99">
         <v>2</v>
       </c>
@@ -9552,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9620,16 +9629,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9644,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9712,16 +9721,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9736,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9804,17 +9813,17 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>35</v>
-      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -9828,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9896,16 +9905,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9920,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9988,16 +9997,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10012,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10080,16 +10089,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10104,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10172,16 +10181,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10196,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10264,16 +10273,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10288,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10356,16 +10365,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10380,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10448,16 +10457,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10472,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10540,16 +10549,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10564,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10632,16 +10641,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10656,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10724,16 +10733,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10748,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10816,16 +10825,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10840,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10908,16 +10917,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10926,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -10994,16 +11003,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11012,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11080,16 +11089,16 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45457.875</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L116">
         <v>2.6</v>
@@ -11101,22 +11110,22 @@
         <v>2.4</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="R116">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
         <v>2.5</v>
@@ -11134,6 +11143,201 @@
         <v>0</v>
       </c>
       <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45458.58333333334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117">
+        <v>1.615</v>
+      </c>
+      <c r="M117">
+        <v>3.4</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>1.666</v>
+      </c>
+      <c r="P117">
+        <v>3.6</v>
+      </c>
+      <c r="Q117">
+        <v>4.333</v>
+      </c>
+      <c r="R117">
+        <v>-0.75</v>
+      </c>
+      <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
+        <v>1.95</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>1.95</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45458.70833333334</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" t="s">
+        <v>40</v>
+      </c>
+      <c r="L118">
+        <v>2.6</v>
+      </c>
+      <c r="M118">
+        <v>3.2</v>
+      </c>
+      <c r="N118">
+        <v>2.4</v>
+      </c>
+      <c r="O118">
+        <v>2.7</v>
+      </c>
+      <c r="P118">
+        <v>3.2</v>
+      </c>
+      <c r="Q118">
+        <v>2.35</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>1.775</v>
+      </c>
+      <c r="U118">
+        <v>2.25</v>
+      </c>
+      <c r="V118">
+        <v>1.825</v>
+      </c>
+      <c r="W118">
+        <v>1.975</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45459.75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="L119">
+        <v>2.1</v>
+      </c>
+      <c r="M119">
+        <v>3.25</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119">
+        <v>2.625</v>
+      </c>
+      <c r="P119">
+        <v>3.3</v>
+      </c>
+      <c r="Q119">
+        <v>2.25</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
+        <v>2.25</v>
+      </c>
+      <c r="V119">
+        <v>1.775</v>
+      </c>
+      <c r="W119">
+        <v>2.025</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -101,15 +101,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802950</t>
-  </si>
-  <si>
-    <t>7803372</t>
-  </si>
-  <si>
-    <t>7802883</t>
   </si>
   <si>
     <t>7802951</t>
@@ -510,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD119"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +604,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -637,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -705,31 +696,31 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -797,17 +788,17 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -821,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -889,16 +880,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -981,16 +972,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1005,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1073,16 +1064,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1097,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1165,16 +1156,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1189,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1257,16 +1248,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1281,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1349,17 +1340,17 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="G10">
         <v>2</v>
       </c>
@@ -1373,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1441,16 +1432,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1465,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1533,16 +1524,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1557,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1625,31 +1616,31 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1717,16 +1708,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1741,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1809,16 +1800,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1833,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1901,31 +1892,31 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1993,17 +1984,17 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
       <c r="G17">
         <v>2</v>
       </c>
@@ -2017,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2085,16 +2076,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2109,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2177,16 +2168,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2201,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2269,16 +2260,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2293,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2361,16 +2352,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2385,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2453,16 +2444,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2477,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2545,16 +2536,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2569,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2637,16 +2628,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2661,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2729,16 +2720,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2753,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2821,16 +2812,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2845,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2913,16 +2904,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2937,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -3005,31 +2996,31 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3097,16 +3088,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3121,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3189,17 +3180,17 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -3213,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3281,16 +3272,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3305,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3373,31 +3364,31 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>43</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3465,16 +3456,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3489,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3557,16 +3548,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3581,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3649,16 +3640,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3673,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3741,16 +3732,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3765,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3833,16 +3824,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3857,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3925,16 +3916,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3949,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4017,16 +4008,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4041,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4109,16 +4100,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4133,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4201,31 +4192,31 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
         <v>39</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>42</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4293,16 +4284,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4317,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4385,16 +4376,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4409,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4477,17 +4468,17 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -4501,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4569,31 +4560,31 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>42</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4661,16 +4652,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4685,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4753,16 +4744,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4777,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4845,16 +4836,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4869,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4937,16 +4928,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4961,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5029,16 +5020,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5053,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5121,16 +5112,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5145,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5213,31 +5204,31 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>40</v>
-      </c>
-      <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>43</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5305,17 +5296,17 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
         <v>35</v>
       </c>
-      <c r="F53" t="s">
-        <v>38</v>
-      </c>
       <c r="G53">
         <v>2</v>
       </c>
@@ -5329,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5397,16 +5388,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5421,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5489,16 +5480,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5513,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5581,31 +5572,31 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
         <v>40</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>43</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5673,31 +5664,31 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
         <v>41</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>44</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5765,31 +5756,31 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
         <v>41</v>
-      </c>
-      <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>44</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5857,16 +5848,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5881,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5949,16 +5940,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5973,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6041,31 +6032,31 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
         <v>39</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>42</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6133,16 +6124,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6157,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6225,16 +6216,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6249,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6317,31 +6308,31 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
         <v>40</v>
-      </c>
-      <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>43</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6409,16 +6400,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6433,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6501,31 +6492,31 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
         <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>42</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6593,16 +6584,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6617,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6685,16 +6676,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6709,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6777,16 +6768,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
         <v>37</v>
-      </c>
-      <c r="F69" t="s">
-        <v>40</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6801,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6869,16 +6860,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
         <v>38</v>
-      </c>
-      <c r="F70" t="s">
-        <v>41</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6893,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6961,16 +6952,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6985,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7053,16 +7044,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7077,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7145,16 +7136,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7169,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7237,16 +7228,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7261,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7329,16 +7320,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7353,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7421,16 +7412,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7445,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7513,16 +7504,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7537,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7605,16 +7596,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7629,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7697,16 +7688,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7721,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7789,16 +7780,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7813,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7881,31 +7872,31 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
         <v>39</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>42</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7973,16 +7964,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7997,7 +7988,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8065,16 +8056,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8089,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8157,16 +8148,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8181,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8249,31 +8240,31 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
         <v>41</v>
-      </c>
-      <c r="F85" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>44</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8341,31 +8332,31 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
         <v>39</v>
-      </c>
-      <c r="F86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>42</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8433,16 +8424,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8457,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8525,16 +8516,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8549,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8617,16 +8608,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8641,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8709,16 +8700,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8733,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8801,31 +8792,31 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
         <v>41</v>
-      </c>
-      <c r="F91" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>44</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8893,16 +8884,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" t="s">
         <v>34</v>
-      </c>
-      <c r="F92" t="s">
-        <v>37</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8917,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8985,16 +8976,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9009,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9077,31 +9068,31 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
         <v>41</v>
-      </c>
-      <c r="F94" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>44</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9169,16 +9160,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9193,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9261,16 +9252,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9285,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9353,16 +9344,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9377,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9445,16 +9436,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9469,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9537,16 +9528,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9561,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9629,16 +9620,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9653,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9721,16 +9712,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9745,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9813,31 +9804,31 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
         <v>41</v>
-      </c>
-      <c r="F102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>44</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9905,16 +9896,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9929,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9997,16 +9988,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10021,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10089,16 +10080,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10113,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10181,31 +10172,31 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
         <v>40</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>43</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10273,16 +10264,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10297,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10365,16 +10356,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10389,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10457,16 +10448,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10481,7 +10472,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10549,17 +10540,17 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
         <v>35</v>
       </c>
-      <c r="F110" t="s">
-        <v>38</v>
-      </c>
       <c r="G110">
         <v>2</v>
       </c>
@@ -10573,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10641,31 +10632,31 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
         <v>39</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>42</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10733,16 +10724,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10757,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10825,16 +10816,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10849,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10917,25 +10908,25 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
         <v>41</v>
-      </c>
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="K114" t="s">
-        <v>44</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -11003,16 +10994,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11021,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11089,52 +11080,52 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
-        <v>45457.875</v>
+        <v>45459.75</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L116">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M116">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N116">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q116">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="R116">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U116">
         <v>2.5</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -11143,201 +11134,6 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="2">
-        <v>45458.58333333334</v>
-      </c>
-      <c r="E117" t="s">
-        <v>36</v>
-      </c>
-      <c r="F117" t="s">
-        <v>38</v>
-      </c>
-      <c r="L117">
-        <v>1.615</v>
-      </c>
-      <c r="M117">
-        <v>3.4</v>
-      </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-      <c r="O117">
-        <v>1.666</v>
-      </c>
-      <c r="P117">
-        <v>3.6</v>
-      </c>
-      <c r="Q117">
-        <v>4.333</v>
-      </c>
-      <c r="R117">
-        <v>-0.75</v>
-      </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>1.95</v>
-      </c>
-      <c r="U117">
-        <v>2.75</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
-      <c r="W117">
-        <v>1.95</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" t="s">
-        <v>33</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45458.70833333334</v>
-      </c>
-      <c r="E118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F118" t="s">
-        <v>40</v>
-      </c>
-      <c r="L118">
-        <v>2.6</v>
-      </c>
-      <c r="M118">
-        <v>3.2</v>
-      </c>
-      <c r="N118">
-        <v>2.4</v>
-      </c>
-      <c r="O118">
-        <v>2.7</v>
-      </c>
-      <c r="P118">
-        <v>3.2</v>
-      </c>
-      <c r="Q118">
-        <v>2.35</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>1.775</v>
-      </c>
-      <c r="U118">
-        <v>2.25</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
-      <c r="W118">
-        <v>1.975</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="2">
-        <v>45459.75</v>
-      </c>
-      <c r="E119" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" t="s">
-        <v>35</v>
-      </c>
-      <c r="L119">
-        <v>2.1</v>
-      </c>
-      <c r="M119">
-        <v>3.25</v>
-      </c>
-      <c r="N119">
-        <v>3</v>
-      </c>
-      <c r="O119">
-        <v>2.625</v>
-      </c>
-      <c r="P119">
-        <v>3.3</v>
-      </c>
-      <c r="Q119">
-        <v>2.25</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>1.75</v>
-      </c>
-      <c r="U119">
-        <v>2.25</v>
-      </c>
-      <c r="V119">
-        <v>1.775</v>
-      </c>
-      <c r="W119">
-        <v>2.025</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
         <v>0</v>
       </c>
     </row>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -11101,22 +11101,22 @@
         <v>3</v>
       </c>
       <c r="O116">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R116">
         <v>0.25</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U116">
         <v>2.5</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7802951</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -501,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +601,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -628,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -696,16 +693,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -788,16 +785,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -880,17 +877,17 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -904,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -972,16 +969,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -996,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1064,16 +1061,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1156,31 +1153,31 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>38</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1248,16 +1245,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1340,16 +1337,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1432,16 +1429,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1456,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1524,16 +1521,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1548,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1616,16 +1613,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1708,16 +1705,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1732,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1800,17 +1797,17 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1892,16 +1889,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1916,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1984,16 +1981,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2008,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2076,16 +2073,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2100,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2168,16 +2165,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2192,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2260,17 +2257,17 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
       <c r="G20">
         <v>2</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2352,16 +2349,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2376,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2444,16 +2441,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2468,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2536,16 +2533,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2560,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2628,16 +2625,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2720,31 +2717,31 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
         <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>39</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2812,17 +2809,17 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2904,16 +2901,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2928,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -2996,16 +2993,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3020,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3088,17 +3085,17 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -3112,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3180,16 +3177,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3204,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3272,16 +3269,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3296,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3364,16 +3361,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3388,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3456,16 +3453,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3480,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3548,31 +3545,31 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
         <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>39</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3640,16 +3637,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
         <v>31</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3664,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3732,16 +3729,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3756,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3824,17 +3821,17 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -3848,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3916,16 +3913,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3940,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4008,16 +4005,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4032,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4100,16 +4097,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4124,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4192,17 +4189,17 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
         <v>35</v>
       </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -4216,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4284,16 +4281,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4308,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4376,16 +4373,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4400,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4468,16 +4465,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4560,31 +4557,31 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>38</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>39</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4652,16 +4649,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4676,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4744,16 +4741,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4768,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4836,16 +4833,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4860,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4928,31 +4925,31 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>38</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>39</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5020,16 +5017,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5044,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5112,16 +5109,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5136,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5204,16 +5201,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5228,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5296,16 +5293,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5320,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5388,16 +5385,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5412,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5480,16 +5477,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5504,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5572,16 +5569,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5596,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5664,16 +5661,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5688,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5756,16 +5753,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5780,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5848,16 +5845,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5872,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5940,16 +5937,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5964,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6032,16 +6029,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6056,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6124,16 +6121,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6148,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6216,16 +6213,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6240,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6308,16 +6305,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6332,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6400,16 +6397,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6424,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6492,16 +6489,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6516,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6584,16 +6581,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6608,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6676,16 +6673,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6700,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6768,16 +6765,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6792,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6860,16 +6857,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6884,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6952,16 +6949,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6976,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7044,16 +7041,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7068,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7136,16 +7133,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7160,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7228,16 +7225,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7252,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7320,16 +7317,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" t="s">
         <v>37</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7344,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7412,17 +7409,17 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" t="s">
         <v>33</v>
       </c>
-      <c r="F76" t="s">
-        <v>34</v>
-      </c>
       <c r="G76">
         <v>0</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7504,16 +7501,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7528,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7596,17 +7593,17 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
         <v>36</v>
       </c>
-      <c r="F78" t="s">
-        <v>37</v>
-      </c>
       <c r="G78">
         <v>2</v>
       </c>
@@ -7620,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7688,31 +7685,31 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79" t="s">
         <v>38</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>2</v>
-      </c>
-      <c r="K79" t="s">
-        <v>39</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7780,16 +7777,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7804,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7872,16 +7869,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7896,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7964,16 +7961,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7988,7 +7985,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8056,16 +8053,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8080,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8148,16 +8145,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8172,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8240,16 +8237,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8264,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8332,31 +8329,31 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
         <v>38</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>39</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8424,16 +8421,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8448,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8516,16 +8513,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8540,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8608,16 +8605,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8632,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8700,16 +8697,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8724,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8792,16 +8789,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8816,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8884,16 +8881,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8908,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8976,16 +8973,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9000,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9068,16 +9065,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9092,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9160,16 +9157,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9184,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9252,16 +9249,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9276,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9344,16 +9341,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9368,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9436,16 +9433,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9460,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9528,16 +9525,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9552,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9620,16 +9617,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9644,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9712,16 +9709,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9736,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9804,16 +9801,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9828,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9896,17 +9893,17 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
         <v>33</v>
       </c>
-      <c r="F103" t="s">
-        <v>34</v>
-      </c>
       <c r="G103">
         <v>2</v>
       </c>
@@ -9920,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9988,16 +9985,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10012,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10080,16 +10077,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10104,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10172,16 +10169,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10196,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10264,16 +10261,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10288,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10356,31 +10353,31 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
         <v>38</v>
-      </c>
-      <c r="F108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" t="s">
-        <v>39</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10448,16 +10445,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10472,7 +10469,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10540,16 +10537,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10564,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10632,16 +10629,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10656,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10724,17 +10721,17 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" t="s">
         <v>35</v>
       </c>
-      <c r="F112" t="s">
-        <v>36</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -10748,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10816,16 +10813,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10840,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10908,16 +10905,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10926,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -10994,16 +10991,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11012,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11070,71 +11067,6 @@
       </c>
       <c r="AD115">
         <v>0.825</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="2">
-        <v>45459.75</v>
-      </c>
-      <c r="E116" t="s">
-        <v>31</v>
-      </c>
-      <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="L116">
-        <v>2.1</v>
-      </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>3</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
-      <c r="P116">
-        <v>3.4</v>
-      </c>
-      <c r="Q116">
-        <v>2</v>
-      </c>
-      <c r="R116">
-        <v>0.25</v>
-      </c>
-      <c r="S116">
-        <v>2.025</v>
-      </c>
-      <c r="T116">
-        <v>1.775</v>
-      </c>
-      <c r="U116">
-        <v>2.5</v>
-      </c>
-      <c r="V116">
-        <v>1.975</v>
-      </c>
-      <c r="W116">
-        <v>1.825</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7802952</t>
+  </si>
+  <si>
+    <t>7802884</t>
+  </si>
+  <si>
+    <t>7802953</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -498,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD115"/>
+  <dimension ref="A1:AD118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +610,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -625,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -693,16 +702,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -785,16 +794,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -809,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -877,16 +886,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -969,16 +978,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -993,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1061,16 +1070,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1153,16 +1162,16 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1245,16 +1254,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1337,16 +1346,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1361,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1429,16 +1438,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1453,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1521,16 +1530,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1545,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1613,17 +1622,17 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1705,16 +1714,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1729,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1797,16 +1806,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1821,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1889,16 +1898,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1913,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1981,16 +1990,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2005,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2073,17 +2082,17 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2165,16 +2174,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2189,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2257,16 +2266,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2281,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2349,16 +2358,16 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2373,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2441,16 +2450,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2465,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2533,16 +2542,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2557,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2625,16 +2634,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2649,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2717,16 +2726,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2741,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2809,16 +2818,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2833,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2901,16 +2910,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2925,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -2993,16 +3002,16 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3017,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3085,16 +3094,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3109,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3177,16 +3186,16 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3201,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3269,16 +3278,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3293,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3361,17 +3370,17 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -3385,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3453,16 +3462,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3477,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3545,16 +3554,16 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3569,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3637,16 +3646,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3661,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3729,17 +3738,17 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3821,16 +3830,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3845,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3913,16 +3922,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3937,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4005,16 +4014,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4029,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4097,16 +4106,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4121,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4189,16 +4198,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4213,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4281,16 +4290,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4305,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4373,16 +4382,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4397,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4465,16 +4474,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4489,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4557,16 +4566,16 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4581,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4649,16 +4658,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4673,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4741,16 +4750,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4765,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4833,16 +4842,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4857,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4925,16 +4934,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4949,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5017,16 +5026,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5041,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5109,16 +5118,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5133,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5201,16 +5210,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5225,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5293,16 +5302,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5317,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5385,16 +5394,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5409,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5477,16 +5486,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5501,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5569,16 +5578,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5593,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5661,16 +5670,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5685,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5753,16 +5762,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5777,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5845,16 +5854,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5869,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5937,16 +5946,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5961,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6029,16 +6038,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6053,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6121,16 +6130,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6145,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6213,16 +6222,16 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6237,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6305,16 +6314,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6329,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6397,16 +6406,16 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6421,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6489,16 +6498,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6513,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6581,16 +6590,16 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6605,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6673,16 +6682,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6697,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6765,16 +6774,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6789,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6857,16 +6866,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6881,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6949,16 +6958,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
         <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>32</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6973,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7041,17 +7050,17 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
         <v>33</v>
       </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7133,17 +7142,17 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" t="s">
-        <v>31</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7225,16 +7234,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7249,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7317,16 +7326,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7341,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7409,16 +7418,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7433,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7501,16 +7510,16 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7525,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7593,16 +7602,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7617,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7685,16 +7694,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7709,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7777,16 +7786,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7801,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7869,16 +7878,16 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7893,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7961,16 +7970,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7985,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8053,16 +8062,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8077,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8145,16 +8154,16 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8169,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8237,17 +8246,17 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
         <v>37</v>
       </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
       <c r="G85">
         <v>1</v>
       </c>
@@ -8261,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8329,16 +8338,16 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8353,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8421,16 +8430,16 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8445,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8513,16 +8522,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8537,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8605,16 +8614,16 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8629,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8697,16 +8706,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8721,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8789,16 +8798,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8813,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8881,16 +8890,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8905,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8973,16 +8982,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8997,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9065,16 +9074,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9089,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9157,16 +9166,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9181,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9249,16 +9258,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9273,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9341,16 +9350,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9365,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9433,16 +9442,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
         <v>35</v>
-      </c>
-      <c r="F98" t="s">
-        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9457,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9525,17 +9534,17 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
         <v>36</v>
       </c>
-      <c r="F99" t="s">
-        <v>33</v>
-      </c>
       <c r="G99">
         <v>2</v>
       </c>
@@ -9549,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9617,16 +9626,16 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9641,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9709,16 +9718,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9733,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9801,17 +9810,17 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s">
         <v>37</v>
       </c>
-      <c r="F102" t="s">
-        <v>34</v>
-      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -9825,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9893,16 +9902,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9917,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9985,16 +9994,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10009,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10077,16 +10086,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10101,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10169,16 +10178,16 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10193,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10261,16 +10270,16 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10285,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10353,16 +10362,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10377,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10445,16 +10454,16 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10469,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10537,16 +10546,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10561,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10629,16 +10638,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10653,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10721,16 +10730,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10745,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10813,16 +10822,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10837,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10905,16 +10914,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10923,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -10991,16 +11000,16 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11009,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11067,6 +11076,201 @@
       </c>
       <c r="AD115">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45464.91666666666</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
+        <v>35</v>
+      </c>
+      <c r="L116">
+        <v>2.15</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>3.2</v>
+      </c>
+      <c r="O116">
+        <v>1.95</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
+        <v>3.6</v>
+      </c>
+      <c r="R116">
+        <v>-0.5</v>
+      </c>
+      <c r="S116">
+        <v>2.025</v>
+      </c>
+      <c r="T116">
+        <v>1.775</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
+        <v>1.9</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45466.70833333334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117">
+        <v>1.444</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>1.533</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>5.5</v>
+      </c>
+      <c r="R117">
+        <v>-1</v>
+      </c>
+      <c r="S117">
+        <v>1.825</v>
+      </c>
+      <c r="T117">
+        <v>1.975</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
+        <v>1.975</v>
+      </c>
+      <c r="W117">
+        <v>1.825</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45466.83333333334</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118">
+        <v>2.3</v>
+      </c>
+      <c r="M118">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
+        <v>2.25</v>
+      </c>
+      <c r="P118">
+        <v>3.4</v>
+      </c>
+      <c r="Q118">
+        <v>2.7</v>
+      </c>
+      <c r="R118">
+        <v>-0.25</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>1.775</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>1.95</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -11107,31 +11107,31 @@
         <v>3.2</v>
       </c>
       <c r="O116">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P116">
+        <v>3.4</v>
+      </c>
+      <c r="Q116">
         <v>3.2</v>
-      </c>
-      <c r="Q116">
-        <v>3.6</v>
       </c>
       <c r="R116">
         <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T116">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="U116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X116">
         <v>0</v>

--- a/Canada Premier League/Canada Premier League.xlsx
+++ b/Canada Premier League/Canada Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7802952</t>
-  </si>
-  <si>
-    <t>7802884</t>
-  </si>
-  <si>
-    <t>7802953</t>
+    <t>7802885</t>
   </si>
   <si>
     <t>Canada Premier League</t>
@@ -507,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD118"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +604,16 @@
         <v>6240282</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45079.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -634,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -702,16 +696,16 @@
         <v>6227808</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -726,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>3.2</v>
@@ -794,16 +788,16 @@
         <v>6227809</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -818,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>2.1</v>
@@ -886,16 +880,16 @@
         <v>6227810</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>3.25</v>
@@ -978,16 +972,16 @@
         <v>6227811</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1002,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>2.45</v>
@@ -1070,16 +1064,16 @@
         <v>6227812</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45087.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1094,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>2.7</v>
@@ -1162,31 +1156,31 @@
         <v>6227813</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
       </c>
       <c r="L8">
         <v>2.25</v>
@@ -1254,16 +1248,16 @@
         <v>6240281</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45088.75</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1278,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>1.909</v>
@@ -1346,16 +1340,16 @@
         <v>6227814</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45093.875</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1370,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>2.1</v>
@@ -1438,16 +1432,16 @@
         <v>6227815</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45094.625</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1462,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>2.6</v>
@@ -1530,16 +1524,16 @@
         <v>6240280</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45094.625</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1554,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>1.571</v>
@@ -1622,16 +1616,16 @@
         <v>6227816</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45095.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1646,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>1.615</v>
@@ -1714,16 +1708,16 @@
         <v>6240279</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45097.95833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1738,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>5.2</v>
@@ -1806,16 +1800,16 @@
         <v>6227817</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45098.83333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1830,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>2.5</v>
@@ -1898,16 +1892,16 @@
         <v>6227818</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45098.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1922,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>1.666</v>
@@ -1990,16 +1984,16 @@
         <v>6227819</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45101.75</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2014,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -2082,16 +2076,16 @@
         <v>6240278</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2106,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>1.571</v>
@@ -2174,16 +2168,16 @@
         <v>6227820</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45102.79166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2198,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>1.909</v>
@@ -2266,16 +2260,16 @@
         <v>6227821</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2290,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>2.4</v>
@@ -2358,31 +2352,31 @@
         <v>6227822</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45107.9375</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
       </c>
       <c r="L21">
         <v>1.727</v>
@@ -2450,16 +2444,16 @@
         <v>6227823</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45108.66666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2474,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2542,16 +2536,16 @@
         <v>6240277</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2566,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>3.25</v>
@@ -2634,16 +2628,16 @@
         <v>6240276</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45114.95833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2658,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>4.5</v>
@@ -2726,16 +2720,16 @@
         <v>6227824</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45115.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2750,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>1.727</v>
@@ -2818,16 +2812,16 @@
         <v>6227825</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2842,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -2910,16 +2904,16 @@
         <v>6227826</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2934,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>2.6</v>
@@ -3002,17 +2996,17 @@
         <v>6227827</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45118.79166666666</v>
       </c>
       <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
       <c r="G28">
         <v>2</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L28">
         <v>2.75</v>
@@ -3094,16 +3088,16 @@
         <v>6227828</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45119.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3118,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>1.85</v>
@@ -3186,31 +3180,31 @@
         <v>6227829</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45121.85416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>40</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>42</v>
       </c>
       <c r="L30">
         <v>3.5</v>
@@ -3278,16 +3272,16 @@
         <v>6227830</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3302,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>2.1</v>
@@ -3370,16 +3364,16 @@
         <v>6227831</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45122.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3394,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32">
         <v>1.909</v>
@@ -3462,16 +3456,16 @@
         <v>6240275</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45123.625</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3486,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L33">
         <v>1.5</v>
@@ -3554,31 +3548,31 @@
         <v>6227832</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45128.95833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
         <v>39</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>41</v>
       </c>
       <c r="L34">
         <v>2.4</v>
@@ -3646,16 +3640,16 @@
         <v>6240274</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45129.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3670,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>2.8</v>
@@ -3738,16 +3732,16 @@
         <v>6227833</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3762,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L36">
         <v>2.5</v>
@@ -3830,16 +3824,16 @@
         <v>6227834</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45130.83333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3854,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>2.3</v>
@@ -3922,16 +3916,16 @@
         <v>6240273</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45135.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3946,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L38">
         <v>1.3</v>
@@ -4014,16 +4008,16 @@
         <v>6227835</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4038,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>2.9</v>
@@ -4106,16 +4100,16 @@
         <v>6227836</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4130,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L40">
         <v>2.6</v>
@@ -4198,16 +4192,16 @@
         <v>6227837</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45137.625</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4222,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>2.2</v>
@@ -4290,16 +4284,16 @@
         <v>6227838</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45142.91666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4314,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L42">
         <v>2.625</v>
@@ -4382,16 +4376,16 @@
         <v>6227839</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
         <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>37</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4406,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4474,16 +4468,16 @@
         <v>6240272</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45144.75</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4498,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L44">
         <v>2.9</v>
@@ -4566,17 +4560,17 @@
         <v>6227840</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45145.625</v>
       </c>
       <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" t="s">
-        <v>40</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L45">
         <v>2.75</v>
@@ -4658,16 +4652,16 @@
         <v>6227841</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45149.875</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4682,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>2.875</v>
@@ -4750,16 +4744,16 @@
         <v>6240271</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4774,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L47">
         <v>1.444</v>
@@ -4842,16 +4836,16 @@
         <v>6227842</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4866,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L48">
         <v>1.727</v>
@@ -4934,16 +4928,16 @@
         <v>6227843</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4958,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L49">
         <v>1.8</v>
@@ -5026,16 +5020,16 @@
         <v>6227844</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45156.875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5050,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L50">
         <v>2.8</v>
@@ -5118,16 +5112,16 @@
         <v>6240270</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45157.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5142,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L51">
         <v>7</v>
@@ -5210,16 +5204,16 @@
         <v>6227855</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5234,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L52">
         <v>1.727</v>
@@ -5302,16 +5296,16 @@
         <v>6227861</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5326,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L53">
         <v>1.571</v>
@@ -5394,16 +5388,16 @@
         <v>6240269</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45163.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5418,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L54">
         <v>1.8</v>
@@ -5486,16 +5480,16 @@
         <v>6227862</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5510,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -5578,16 +5572,16 @@
         <v>6227863</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5602,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L56">
         <v>2.5</v>
@@ -5670,16 +5664,16 @@
         <v>6227864</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45165.75</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5694,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L57">
         <v>2.4</v>
@@ -5762,16 +5756,16 @@
         <v>6227865</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45171.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5786,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -5854,16 +5848,16 @@
         <v>6227866</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5878,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L59">
         <v>2.4</v>
@@ -5946,16 +5940,16 @@
         <v>6240268</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45172.75</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5970,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -6038,16 +6032,16 @@
         <v>6227867</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45173.625</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6062,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L61">
         <v>1.8</v>
@@ -6130,16 +6124,16 @@
         <v>6227868</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45177.83333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6154,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L62">
         <v>2.15</v>
@@ -6222,31 +6216,31 @@
         <v>6227869</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45177.95833333334</v>
       </c>
       <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
         <v>40</v>
-      </c>
-      <c r="F63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>42</v>
       </c>
       <c r="L63">
         <v>1.75</v>
@@ -6314,16 +6308,16 @@
         <v>6227870</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6338,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L64">
         <v>1.909</v>
@@ -6406,17 +6400,17 @@
         <v>6240267</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
         <v>33</v>
       </c>
-      <c r="F65" t="s">
-        <v>35</v>
-      </c>
       <c r="G65">
         <v>2</v>
       </c>
@@ -6430,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L65">
         <v>3.5</v>
@@ -6498,16 +6492,16 @@
         <v>6227871</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45181.79166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6522,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L66">
         <v>2.6</v>
@@ -6590,31 +6584,31 @@
         <v>6227872</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45182.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
         <v>40</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
-        <v>42</v>
       </c>
       <c r="L67">
         <v>2.5</v>
@@ -6682,16 +6676,16 @@
         <v>6240266</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45185.75</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6706,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L68">
         <v>1.285</v>
@@ -6774,16 +6768,16 @@
         <v>6227874</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45186.625</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6798,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L69">
         <v>3.1</v>
@@ -6866,16 +6860,16 @@
         <v>6227875</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45186.75</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6890,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -6958,16 +6952,16 @@
         <v>6227873</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45187.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6982,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L71">
         <v>2.625</v>
@@ -7050,16 +7044,16 @@
         <v>6240265</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45189.875</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7074,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L72">
         <v>1.615</v>
@@ -7142,16 +7136,16 @@
         <v>6227876</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7166,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L73">
         <v>3.6</v>
@@ -7234,16 +7228,16 @@
         <v>6240264</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7258,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L74">
         <v>3.75</v>
@@ -7326,16 +7320,16 @@
         <v>6227877</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7350,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -7418,16 +7412,16 @@
         <v>6227878</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45193.625</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7442,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L76">
         <v>2.1</v>
@@ -7510,17 +7504,17 @@
         <v>6227879</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45198.91666666666</v>
       </c>
       <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s">
         <v>34</v>
       </c>
-      <c r="F77" t="s">
-        <v>36</v>
-      </c>
       <c r="G77">
         <v>2</v>
       </c>
@@ -7534,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L77">
         <v>1.615</v>
@@ -7602,16 +7596,16 @@
         <v>6227880</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45199.625</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7626,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L78">
         <v>2.625</v>
@@ -7694,16 +7688,16 @@
         <v>6240263</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45199.75</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7718,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L79">
         <v>1.285</v>
@@ -7786,16 +7780,16 @@
         <v>6227881</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7810,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L80">
         <v>2.375</v>
@@ -7878,17 +7872,17 @@
         <v>6227882</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45205.85416666666</v>
       </c>
       <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
         <v>36</v>
       </c>
-      <c r="F81" t="s">
-        <v>38</v>
-      </c>
       <c r="G81">
         <v>0</v>
       </c>
@@ -7902,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L81">
         <v>2.75</v>
@@ -7970,16 +7964,16 @@
         <v>6240262</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45205.97916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7994,7 +7988,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8062,16 +8056,16 @@
         <v>6227884</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45206.75</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8086,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L83">
         <v>2.25</v>
@@ -8154,31 +8148,31 @@
         <v>7301364</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45206.75</v>
       </c>
       <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
         <v>39</v>
-      </c>
-      <c r="F84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>41</v>
       </c>
       <c r="L84">
         <v>1.8</v>
@@ -8246,16 +8240,16 @@
         <v>7314312</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45210.95833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8270,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L85">
         <v>1.727</v>
@@ -8338,17 +8332,17 @@
         <v>7334555</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45213.625</v>
       </c>
       <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
         <v>38</v>
       </c>
-      <c r="F86" t="s">
-        <v>40</v>
-      </c>
       <c r="G86">
         <v>0</v>
       </c>
@@ -8362,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L86">
         <v>2.6</v>
@@ -8430,31 +8424,31 @@
         <v>7314311</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45213.75</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
         <v>39</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
-        <v>41</v>
       </c>
       <c r="L87">
         <v>2.3</v>
@@ -8522,16 +8516,16 @@
         <v>7373916</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45227.79166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8546,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L88">
         <v>2.2</v>
@@ -8614,17 +8608,17 @@
         <v>7802934</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45395.58333333334</v>
       </c>
       <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s">
         <v>35</v>
       </c>
-      <c r="F89" t="s">
-        <v>37</v>
-      </c>
       <c r="G89">
         <v>2</v>
       </c>
@@ -8638,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L89">
         <v>2.875</v>
@@ -8706,16 +8700,16 @@
         <v>7802874</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8730,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L90">
         <v>2.2</v>
@@ -8798,16 +8792,16 @@
         <v>7803361</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8822,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L91">
         <v>1.833</v>
@@ -8890,16 +8884,16 @@
         <v>7803362</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8914,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -8982,16 +8976,16 @@
         <v>7803363</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9006,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L93">
         <v>3.1</v>
@@ -9074,16 +9068,16 @@
         <v>7802935</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45401.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9098,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9166,16 +9160,16 @@
         <v>7802936</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45402.625</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9190,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L95">
         <v>3.1</v>
@@ -9258,16 +9252,16 @@
         <v>7802875</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45403.70833333334</v>
       </c>
       <c r="E96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
         <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>39</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9282,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9350,16 +9344,16 @@
         <v>7802937</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45408.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9374,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L97">
         <v>2.2</v>
@@ -9442,16 +9436,16 @@
         <v>7802938</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45409.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9466,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9534,16 +9528,16 @@
         <v>7802876</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9558,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L99">
         <v>1.6</v>
@@ -9626,31 +9620,31 @@
         <v>7803364</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45410.75</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
         <v>40</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>42</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -9718,16 +9712,16 @@
         <v>7803365</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45415.91666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9742,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L101">
         <v>1.65</v>
@@ -9810,16 +9804,16 @@
         <v>7802939</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45416.83333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9834,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L102">
         <v>1.909</v>
@@ -9902,16 +9896,16 @@
         <v>7802940</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45417.625</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9926,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -9994,16 +9988,16 @@
         <v>7803366</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45422.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -10018,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L104">
         <v>1.95</v>
@@ -10086,16 +10080,16 @@
         <v>7802941</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45423.625</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10110,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L105">
         <v>2.7</v>
@@ -10178,31 +10172,31 @@
         <v>7802878</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45423.75</v>
       </c>
       <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
         <v>40</v>
-      </c>
-      <c r="F106" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>42</v>
       </c>
       <c r="L106">
         <v>2.25</v>
@@ -10270,17 +10264,17 @@
         <v>7802942</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E107" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" t="s">
         <v>33</v>
       </c>
-      <c r="F107" t="s">
-        <v>35</v>
-      </c>
       <c r="G107">
         <v>1</v>
       </c>
@@ -10294,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L107">
         <v>3.25</v>
@@ -10362,16 +10356,16 @@
         <v>7802943</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45429.95833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10386,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -10454,31 +10448,31 @@
         <v>7802879</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45430.70833333334</v>
       </c>
       <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109" t="s">
         <v>39</v>
-      </c>
-      <c r="F109" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>2</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>2</v>
-      </c>
-      <c r="K109" t="s">
-        <v>41</v>
       </c>
       <c r="L109">
         <v>1.6</v>
@@ -10546,16 +10540,16 @@
         <v>7803367</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45430.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10570,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -10638,16 +10632,16 @@
         <v>7803368</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45432.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10662,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L111">
         <v>2.1</v>
@@ -10730,16 +10724,16 @@
         <v>7802944</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45436.83333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10754,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L112">
         <v>1.909</v>
@@ -10822,16 +10816,16 @@
         <v>7802880</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45437.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10846,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L113">
         <v>2.375</v>
@@ -10914,16 +10908,16 @@
         <v>7802945</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45437.79166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10932,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L114">
         <v>2.75</v>
@@ -11000,17 +10994,17 @@
         <v>7803369</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45438.75</v>
       </c>
       <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" t="s">
         <v>34</v>
       </c>
-      <c r="F115" t="s">
-        <v>36</v>
-      </c>
       <c r="G115">
         <v>1</v>
       </c>
@@ -11018,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L115">
         <v>1.571</v>
@@ -11086,22 +11080,22 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
-        <v>45464.91666666666</v>
+        <v>45471.83333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L116">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
         <v>3.2</v>
@@ -11110,28 +11104,28 @@
         <v>2.1</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
       </c>
       <c r="R116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S116">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U116">
         <v>2.5</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -11140,136 +11134,6 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117" s="2">
-        <v>45466.70833333334</v>
-      </c>
-      <c r="E117" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" t="s">
-        <v>36</v>
-      </c>
-      <c r="L117">
-        <v>1.444</v>
-      </c>
-      <c r="M117">
-        <v>4</v>
-      </c>
-      <c r="N117">
-        <v>6.5</v>
-      </c>
-      <c r="O117">
-        <v>1.533</v>
-      </c>
-      <c r="P117">
-        <v>4</v>
-      </c>
-      <c r="Q117">
-        <v>5.5</v>
-      </c>
-      <c r="R117">
-        <v>-1</v>
-      </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>1.975</v>
-      </c>
-      <c r="U117">
-        <v>2.75</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
-      <c r="W117">
-        <v>1.825</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45466.83333333334</v>
-      </c>
-      <c r="E118" t="s">
-        <v>33</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118">
-        <v>2.3</v>
-      </c>
-      <c r="M118">
-        <v>3.4</v>
-      </c>
-      <c r="N118">
-        <v>2.7</v>
-      </c>
-      <c r="O118">
-        <v>2.25</v>
-      </c>
-      <c r="P118">
-        <v>3.4</v>
-      </c>
-      <c r="Q118">
-        <v>2.7</v>
-      </c>
-      <c r="R118">
-        <v>-0.25</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>1.775</v>
-      </c>
-      <c r="U118">
-        <v>2.5</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
-      <c r="W118">
-        <v>1.95</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
         <v>0</v>
       </c>
     </row>
